--- a/Uploads/coingecko_prices_1m.xlsx
+++ b/Uploads/coingecko_prices_1m.xlsx
@@ -456,7 +456,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45810.88611111111</v>
+        <v>45810.89930555555</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -464,12 +464,12 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>104967.8312669531</v>
+        <v>104867.7317669942</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45810.88958333333</v>
+        <v>45810.90347222222</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -477,12 +477,12 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>104953.7064279029</v>
+        <v>104834.823428318</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45810.89305555556</v>
+        <v>45810.90625</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -490,12 +490,12 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>104915.3226877055</v>
+        <v>104751.069433681</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45810.89583333334</v>
+        <v>45810.91041666667</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -503,12 +503,12 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>104903.9433719449</v>
+        <v>104758.7241174765</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45810.89930555555</v>
+        <v>45810.91388888889</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -516,12 +516,12 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>104867.7317669942</v>
+        <v>104772.5900320418</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45810.90347222222</v>
+        <v>45810.91666666666</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -529,12 +529,12 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>104834.823428318</v>
+        <v>104813.5722536531</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45810.90625</v>
+        <v>45810.92013888889</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -542,12 +542,12 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>104751.069433681</v>
+        <v>104936.403917877</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45810.91041666667</v>
+        <v>45810.92430555556</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -555,12 +555,12 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>104758.7241174765</v>
+        <v>104989.9924159553</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45810.91388888889</v>
+        <v>45810.92708333334</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -568,12 +568,12 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>104772.5900320418</v>
+        <v>105048.023235944</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45810.91666666666</v>
+        <v>45810.93055555555</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -581,12 +581,12 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>104813.5722536531</v>
+        <v>105131.681842406</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45810.92013888889</v>
+        <v>45810.93472222222</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -594,12 +594,12 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>104936.403917877</v>
+        <v>105240.4022603288</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45810.92430555556</v>
+        <v>45810.9375</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -607,12 +607,12 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>104989.9924159553</v>
+        <v>105500.6235679192</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45810.92708333334</v>
+        <v>45810.94097222222</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -620,12 +620,12 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>105048.023235944</v>
+        <v>105621.1207222395</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45810.93055555555</v>
+        <v>45810.94513888889</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -633,12 +633,12 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>105131.681842406</v>
+        <v>105690.9252774498</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45810.93472222222</v>
+        <v>45810.94791666666</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -646,12 +646,12 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>105240.4022603288</v>
+        <v>105665.4876148497</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45810.9375</v>
+        <v>45810.95138888889</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -659,12 +659,12 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>105500.6235679192</v>
+        <v>105687.1472478373</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45810.94097222222</v>
+        <v>45810.95486111111</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -672,12 +672,12 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>105621.1207222395</v>
+        <v>105689.7601486915</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45810.94513888889</v>
+        <v>45810.96388888889</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -685,12 +685,12 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>105690.9252774498</v>
+        <v>105690.1706798243</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45810.94791666666</v>
+        <v>45810.96527777778</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -698,12 +698,12 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>105665.4876148497</v>
+        <v>105741.3020861076</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45810.95138888889</v>
+        <v>45810.96875</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -711,12 +711,12 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>105687.1472478373</v>
+        <v>105753.5135828025</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45810.95486111111</v>
+        <v>45810.97222222222</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -724,12 +724,12 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>105689.7601486915</v>
+        <v>105778.3010398294</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45810.96388888889</v>
+        <v>45810.97638888889</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -737,12 +737,12 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>105690.1706798243</v>
+        <v>105837.4104449269</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45810.96527777778</v>
+        <v>45810.97986111111</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -750,12 +750,12 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>105741.3020861076</v>
+        <v>105845.7764743229</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45810.96875</v>
+        <v>45810.98333333333</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -763,12 +763,12 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>105753.5135828025</v>
+        <v>105838.0918837003</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45810.97222222222</v>
+        <v>45810.98611111111</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -776,12 +776,12 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>105778.3010398294</v>
+        <v>105860.7940759664</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45810.97638888889</v>
+        <v>45810.98958333334</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -789,12 +789,12 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>105837.4104449269</v>
+        <v>105859.7468089945</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45810.97986111111</v>
+        <v>45810.99375</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -802,12 +802,12 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>105845.7764743229</v>
+        <v>105873.3684777896</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45810.98333333333</v>
+        <v>45810.99722222222</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -815,12 +815,12 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>105838.0918837003</v>
+        <v>105884.7426322115</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45810.98611111111</v>
+        <v>45811.00069444445</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -828,12 +828,12 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>105860.7940759664</v>
+        <v>105883.8317571888</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45810.98958333334</v>
+        <v>45811.00416666667</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -841,12 +841,12 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>105859.7468089945</v>
+        <v>105869.7934579134</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45810.99375</v>
+        <v>45811.00763888889</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -854,12 +854,12 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>105873.3684777896</v>
+        <v>105877.04840905</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45810.99722222222</v>
+        <v>45811.01111111111</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -867,12 +867,12 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>105884.7426322115</v>
+        <v>105952.6536616869</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45811.00069444445</v>
+        <v>45811.01388888889</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -880,12 +880,12 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>105883.8317571888</v>
+        <v>106034.1969702259</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45811.00416666667</v>
+        <v>45811.01736111111</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -893,12 +893,12 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>105869.7934579134</v>
+        <v>106129.6034973971</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45811.00763888889</v>
+        <v>45811.02152777778</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -906,12 +906,12 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>105877.04840905</v>
+        <v>106097.7807326368</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45811.01111111111</v>
+        <v>45811.02430555555</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -919,12 +919,12 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>105952.6536616869</v>
+        <v>106203.5054457755</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45811.01388888889</v>
+        <v>45811.02777777778</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -932,12 +932,12 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>106034.1969702259</v>
+        <v>106246.8807756621</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45811.01736111111</v>
+        <v>45811.03194444445</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -945,12 +945,12 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>106129.6034973971</v>
+        <v>106278.1523688375</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45811.02152777778</v>
+        <v>45811.03541666667</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -958,12 +958,12 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>106097.7807326368</v>
+        <v>106290.2401656292</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45811.02430555555</v>
+        <v>45811.03888888889</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -971,12 +971,12 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>106203.5054457755</v>
+        <v>106305.2464203063</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45811.02777777778</v>
+        <v>45811.04166666666</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -984,12 +984,12 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>106246.8807756621</v>
+        <v>106303.2642325292</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45811.03194444445</v>
+        <v>45811.04513888889</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -997,12 +997,12 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>106278.1523688375</v>
+        <v>106329.1263226674</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45811.03541666667</v>
+        <v>45811.04930555556</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -1010,12 +1010,12 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>106290.2401656292</v>
+        <v>106360.1682920282</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45811.03888888889</v>
+        <v>45811.05277777778</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -1023,12 +1023,12 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>106305.2464203063</v>
+        <v>106320.3787330439</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45811.04166666666</v>
+        <v>45811.05625</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -1036,12 +1036,12 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>106303.2642325292</v>
+        <v>106305.3017147605</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45811.04513888889</v>
+        <v>45811.05902777778</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -1049,12 +1049,12 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>106329.1263226674</v>
+        <v>106322.8034218054</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45811.04930555556</v>
+        <v>45811.0625</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -1062,12 +1062,12 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>106360.1682920282</v>
+        <v>106341.3921180068</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45811.05277777778</v>
+        <v>45811.06666666667</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -1075,12 +1075,12 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>106320.3787330439</v>
+        <v>106330.2065265987</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45811.05625</v>
+        <v>45811.07013888889</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -1088,12 +1088,12 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>106305.3017147605</v>
+        <v>106329.0846714</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45811.05902777778</v>
+        <v>45811.07291666666</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -1101,12 +1101,12 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>106322.8034218054</v>
+        <v>106325.9295982982</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45811.0625</v>
+        <v>45811.07708333333</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -1114,12 +1114,12 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>106341.3921180068</v>
+        <v>106361.3696028495</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45811.06666666667</v>
+        <v>45811.08055555556</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -1127,12 +1127,12 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>106330.2065265987</v>
+        <v>106365.8412026835</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45811.07013888889</v>
+        <v>45811.08402777778</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -1140,12 +1140,12 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>106329.0846714</v>
+        <v>106415.3980522334</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45811.07291666666</v>
+        <v>45811.08680555555</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -1153,12 +1153,12 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>106325.9295982982</v>
+        <v>106442.6458782834</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45811.07708333333</v>
+        <v>45811.09027777778</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -1166,12 +1166,12 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>106361.3696028495</v>
+        <v>106420.645516494</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45811.08055555556</v>
+        <v>45811.09444444445</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -1179,12 +1179,12 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>106365.8412026835</v>
+        <v>106405.681371278</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45811.08402777778</v>
+        <v>45811.09791666667</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -1192,12 +1192,12 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>106415.3980522334</v>
+        <v>106353.6575307422</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45811.08680555555</v>
+        <v>45811.10138888889</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -1205,12 +1205,12 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>106442.6458782834</v>
+        <v>106304.1648838052</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45811.09027777778</v>
+        <v>45811.10416666666</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -1218,12 +1218,12 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>106420.645516494</v>
+        <v>106271.1740816992</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45811.09444444445</v>
+        <v>45811.10763888889</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -1231,12 +1231,12 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>106405.681371278</v>
+        <v>106222.958096786</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45811.09791666667</v>
+        <v>45811.11111111111</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -1244,12 +1244,12 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>106353.6575307422</v>
+        <v>106212.1077106177</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45811.10138888889</v>
+        <v>45811.11527777778</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -1257,12 +1257,12 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>106304.1648838052</v>
+        <v>106179.6858608246</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45811.10416666666</v>
+        <v>45811.11875</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -1270,12 +1270,12 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>106271.1740816992</v>
+        <v>106004.2754644419</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45811.10763888889</v>
+        <v>45811.12152777778</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -1283,12 +1283,12 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>106222.958096786</v>
+        <v>105955.1065178471</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45811.11111111111</v>
+        <v>45811.125</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -1296,12 +1296,12 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>106212.1077106177</v>
+        <v>105912.2223556738</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45811.11527777778</v>
+        <v>45811.12847222222</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -1309,12 +1309,12 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>106179.6858608246</v>
+        <v>105804.8991558657</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45811.11875</v>
+        <v>45811.13263888889</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -1322,12 +1322,12 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>106004.2754644419</v>
+        <v>105672.0473967909</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45811.12152777778</v>
+        <v>45811.13611111111</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -1335,12 +1335,12 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>105955.1065178471</v>
+        <v>105617.9109621776</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45811.125</v>
+        <v>45811.14027777778</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -1348,12 +1348,12 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>105912.2223556738</v>
+        <v>105638.6358965646</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45811.12847222222</v>
+        <v>45811.14236111111</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -1361,12 +1361,12 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>105804.8991558657</v>
+        <v>105646.7152313648</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45811.13263888889</v>
+        <v>45811.14583333334</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -1374,12 +1374,12 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>105672.0473967909</v>
+        <v>105621.104071346</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45811.13611111111</v>
+        <v>45811.15</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -1387,12 +1387,12 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>105617.9109621776</v>
+        <v>105566.6096590127</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45811.14027777778</v>
+        <v>45811.15347222222</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -1400,12 +1400,12 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>105638.6358965646</v>
+        <v>105581.6713206964</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45811.14236111111</v>
+        <v>45811.15694444445</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -1413,12 +1413,12 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>105646.7152313648</v>
+        <v>105590.7651373613</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45811.14583333334</v>
+        <v>45811.15972222222</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -1426,12 +1426,12 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>105621.104071346</v>
+        <v>105590.640308969</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45811.15</v>
+        <v>45811.16319444445</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -1439,12 +1439,12 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>105566.6096590127</v>
+        <v>105582.3449822773</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45811.15347222222</v>
+        <v>45811.16736111111</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -1452,12 +1452,12 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>105581.6713206964</v>
+        <v>105559.5709498075</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45811.15694444445</v>
+        <v>45811.17083333333</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -1465,12 +1465,12 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>105590.7651373613</v>
+        <v>105556.8241106584</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45811.15972222222</v>
+        <v>45811.17430555556</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -1478,12 +1478,12 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>105590.640308969</v>
+        <v>105517.5211697793</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45811.16319444445</v>
+        <v>45811.17777777778</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -1491,12 +1491,12 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>105582.3449822773</v>
+        <v>105491.2853563195</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45811.16736111111</v>
+        <v>45811.18125</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -1504,12 +1504,12 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>105559.5709498075</v>
+        <v>105462.1205499073</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45811.17083333333</v>
+        <v>45811.18402777778</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -1517,12 +1517,12 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>105556.8241106584</v>
+        <v>105424.0987818826</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45811.17430555556</v>
+        <v>45811.18819444445</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -1530,12 +1530,12 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>105517.5211697793</v>
+        <v>105398.4107297828</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45811.17777777778</v>
+        <v>45811.19166666667</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -1543,12 +1543,12 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>105491.2853563195</v>
+        <v>105323.3828593499</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45811.18125</v>
+        <v>45811.19513888889</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -1556,12 +1556,12 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>105462.1205499073</v>
+        <v>105306.2405232327</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45811.18402777778</v>
+        <v>45811.19861111111</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -1569,12 +1569,12 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>105424.0987818826</v>
+        <v>105307.9472809153</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45811.18819444445</v>
+        <v>45811.20138888889</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -1582,12 +1582,12 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>105398.4107297828</v>
+        <v>105301.7317207736</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45811.19166666667</v>
+        <v>45811.20486111111</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -1595,12 +1595,12 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>105323.3828593499</v>
+        <v>105281.7096124612</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45811.19513888889</v>
+        <v>45811.2125</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -1608,12 +1608,12 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>105306.2405232327</v>
+        <v>105296.9086046389</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45811.19861111111</v>
+        <v>45811.21527777778</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -1621,12 +1621,12 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>105307.9472809153</v>
+        <v>105361.7838670131</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45811.20138888889</v>
+        <v>45811.21875</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -1634,12 +1634,12 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>105301.7317207736</v>
+        <v>105376.0082553879</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45811.20486111111</v>
+        <v>45811.22361111111</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -1647,12 +1647,12 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>105281.7096124612</v>
+        <v>105351.7303400903</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45811.2125</v>
+        <v>45811.22638888889</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -1660,12 +1660,12 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>105296.9086046389</v>
+        <v>105344.4968284149</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>45811.21527777778</v>
+        <v>45811.22916666666</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -1673,12 +1673,12 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>105361.7838670131</v>
+        <v>105335.3013552283</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>45811.21875</v>
+        <v>45811.23263888889</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -1686,12 +1686,12 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>105376.0082553879</v>
+        <v>105340.0790539076</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>45811.22361111111</v>
+        <v>45811.2375</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -1699,12 +1699,12 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>105351.7303400903</v>
+        <v>105368.4626800587</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>45811.22638888889</v>
+        <v>45811.23958333334</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -1712,12 +1712,12 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>105344.4968284149</v>
+        <v>105358.4175803165</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>45811.22916666666</v>
+        <v>45811.24305555555</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -1725,12 +1725,12 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>105335.3013552283</v>
+        <v>105354.2509657655</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>45811.23263888889</v>
+        <v>45811.24722222222</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -1738,12 +1738,12 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>105340.0790539076</v>
+        <v>105375.6327031349</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>45811.2375</v>
+        <v>45811.25069444445</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -1751,12 +1751,12 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>105368.4626800587</v>
+        <v>105408.1550399723</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>45811.23958333334</v>
+        <v>45811.25347222222</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -1764,12 +1764,12 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>105358.4175803165</v>
+        <v>105458.3775828309</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>45811.24305555555</v>
+        <v>45811.25694444445</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -1777,12 +1777,12 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>105354.2509657655</v>
+        <v>105469.2618069114</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>45811.24722222222</v>
+        <v>45811.26111111111</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -1790,12 +1790,12 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>105375.6327031349</v>
+        <v>105470.8307355441</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>45811.25069444445</v>
+        <v>45811.26388888889</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -1803,12 +1803,12 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>105408.1550399723</v>
+        <v>105470.2962605888</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>45811.25347222222</v>
+        <v>45811.26736111111</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -1816,12 +1816,12 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>105458.3775828309</v>
+        <v>105452.101031485</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>45811.25694444445</v>
+        <v>45811.27152777778</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -1829,12 +1829,12 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>105469.2618069114</v>
+        <v>105379.6417679011</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>45811.26111111111</v>
+        <v>45811.27430555555</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -1842,12 +1842,12 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>105470.8307355441</v>
+        <v>105356.3326855634</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>45811.26388888889</v>
+        <v>45811.27777777778</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -1855,12 +1855,12 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>105470.2962605888</v>
+        <v>105339.0016894454</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>45811.26736111111</v>
+        <v>45811.28125</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -1868,12 +1868,12 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>105452.101031485</v>
+        <v>105330.0759659046</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>45811.27152777778</v>
+        <v>45811.28611111111</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -1881,12 +1881,12 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>105379.6417679011</v>
+        <v>105343.9042821983</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>45811.27430555555</v>
+        <v>45811.28888888889</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -1894,12 +1894,12 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>105356.3326855634</v>
+        <v>105350.7715324407</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>45811.27777777778</v>
+        <v>45811.29166666666</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -1907,12 +1907,12 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>105339.0016894454</v>
+        <v>105376.8174644804</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>45811.28125</v>
+        <v>45811.29583333333</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -1920,12 +1920,12 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>105330.0759659046</v>
+        <v>105392.1599358587</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>45811.28611111111</v>
+        <v>45811.29930555556</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -1933,12 +1933,12 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>105343.9042821983</v>
+        <v>105418.1054125544</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>45811.28888888889</v>
+        <v>45811.30277777778</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -1946,12 +1946,12 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>105350.7715324407</v>
+        <v>105440.25786545</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>45811.29166666666</v>
+        <v>45811.30555555555</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -1959,12 +1959,12 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>105376.8174644804</v>
+        <v>105437.7125895185</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>45811.29583333333</v>
+        <v>45811.30902777778</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -1972,12 +1972,12 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>105392.1599358587</v>
+        <v>105389.0612929267</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>45811.29930555556</v>
+        <v>45811.31388888889</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -1985,12 +1985,12 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>105418.1054125544</v>
+        <v>105357.3494267172</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>45811.30277777778</v>
+        <v>45811.31666666667</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -1998,12 +1998,12 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>105440.25786545</v>
+        <v>105347.6273223482</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>45811.30555555555</v>
+        <v>45811.31944444445</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -2011,12 +2011,12 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>105437.7125895185</v>
+        <v>105338.0112418584</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>45811.30902777778</v>
+        <v>45811.32361111111</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -2024,12 +2024,12 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>105389.0612929267</v>
+        <v>105326.3473989258</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>45811.31388888889</v>
+        <v>45811.32708333333</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -2037,12 +2037,12 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>105357.3494267172</v>
+        <v>105310.1624778041</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>45811.31666666667</v>
+        <v>45811.33055555556</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -2050,12 +2050,12 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>105347.6273223482</v>
+        <v>105260.9582258494</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>45811.31944444445</v>
+        <v>45811.33402777778</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -2063,12 +2063,12 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>105338.0112418584</v>
+        <v>105235.8052281031</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>45811.32361111111</v>
+        <v>45811.3375</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -2076,12 +2076,12 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>105326.3473989258</v>
+        <v>105242.2022719217</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>45811.32708333333</v>
+        <v>45811.34027777778</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -2089,12 +2089,12 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>105310.1624778041</v>
+        <v>105236.1279880301</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>45811.33055555556</v>
+        <v>45811.34375</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
@@ -2102,12 +2102,12 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>105260.9582258494</v>
+        <v>105195.2649170158</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>45811.33402777778</v>
+        <v>45811.34791666667</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -2115,12 +2115,12 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>105235.8052281031</v>
+        <v>105150.0918366744</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>45811.3375</v>
+        <v>45811.35138888889</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -2128,12 +2128,12 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>105242.2022719217</v>
+        <v>105109.5180635119</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>45811.34027777778</v>
+        <v>45811.35416666666</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -2141,12 +2141,12 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>105236.1279880301</v>
+        <v>105069.4131471993</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>45811.34375</v>
+        <v>45811.35833333333</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -2154,12 +2154,12 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>105195.2649170158</v>
+        <v>105038.8727750926</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>45811.34791666667</v>
+        <v>45811.36111111111</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -2167,12 +2167,12 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>105150.0918366744</v>
+        <v>105010.7576321811</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>45811.35138888889</v>
+        <v>45811.36527777778</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -2180,12 +2180,12 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>105109.5180635119</v>
+        <v>104982.4036555916</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>45811.35416666666</v>
+        <v>45811.36805555555</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -2193,12 +2193,12 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>105069.4131471993</v>
+        <v>104998.6529530842</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>45811.35833333333</v>
+        <v>45811.37152777778</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -2206,12 +2206,12 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>105038.8727750926</v>
+        <v>105027.6735138321</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>45811.36111111111</v>
+        <v>45811.37569444445</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -2219,12 +2219,12 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>105010.7576321811</v>
+        <v>105056.7992005663</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>45811.36527777778</v>
+        <v>45811.37916666667</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -2232,12 +2232,12 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>104982.4036555916</v>
+        <v>105116.362628917</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>45811.36805555555</v>
+        <v>45811.38194444445</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -2245,12 +2245,12 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>104998.6529530842</v>
+        <v>105128.6723096143</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>45811.37152777778</v>
+        <v>45811.38541666666</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -2258,12 +2258,12 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>105027.6735138321</v>
+        <v>105165.6845423849</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>45811.37569444445</v>
+        <v>45811.38958333333</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
@@ -2271,12 +2271,12 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>105056.7992005663</v>
+        <v>105178.3384576385</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>45811.37916666667</v>
+        <v>45811.39305555556</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -2284,12 +2284,12 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>105116.362628917</v>
+        <v>105163.7418043502</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>45811.38194444445</v>
+        <v>45811.39652777778</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -2297,12 +2297,12 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>105128.6723096143</v>
+        <v>105134.3520964947</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>45811.38541666666</v>
+        <v>45811.39930555555</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -2310,12 +2310,12 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>105165.6845423849</v>
+        <v>105141.161192358</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>45811.38958333333</v>
+        <v>45811.40277777778</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -2323,12 +2323,12 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>105178.3384576385</v>
+        <v>105206.3445497609</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>45811.39305555556</v>
+        <v>45811.40694444445</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -2336,12 +2336,12 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>105163.7418043502</v>
+        <v>105245.578242459</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>45811.39652777778</v>
+        <v>45811.41041666667</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -2349,12 +2349,12 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>105134.3520964947</v>
+        <v>105257.6447592698</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>45811.39930555555</v>
+        <v>45811.41388888889</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
@@ -2362,12 +2362,12 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>105141.161192358</v>
+        <v>105265.5479425857</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>45811.40277777778</v>
+        <v>45811.41666666666</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -2375,12 +2375,12 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>105206.3445497609</v>
+        <v>105264.2351143675</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>45811.40694444445</v>
+        <v>45811.42083333333</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -2388,12 +2388,12 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>105245.578242459</v>
+        <v>105245.850822697</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>45811.41041666667</v>
+        <v>45811.42430555556</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
@@ -2401,12 +2401,12 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>105257.6447592698</v>
+        <v>105266.097548013</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>45811.41388888889</v>
+        <v>45811.42777777778</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
@@ -2414,12 +2414,12 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>105265.5479425857</v>
+        <v>105283.684228953</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>45811.41666666666</v>
+        <v>45811.43055555555</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
@@ -2427,12 +2427,12 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>105264.2351143675</v>
+        <v>105295.2989112544</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>45811.42083333333</v>
+        <v>45811.43402777778</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
@@ -2440,12 +2440,12 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>105245.850822697</v>
+        <v>105299.7170304584</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>45811.42430555556</v>
+        <v>45811.43819444445</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
@@ -2453,12 +2453,12 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>105266.097548013</v>
+        <v>105306.6756509086</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>45811.42777777778</v>
+        <v>45811.44166666667</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
@@ -2466,12 +2466,12 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>105283.684228953</v>
+        <v>105318.2647161414</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>45811.43055555555</v>
+        <v>45811.44513888889</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
@@ -2479,12 +2479,12 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>105295.2989112544</v>
+        <v>105330.2557961347</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>45811.43402777778</v>
+        <v>45811.44791666666</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
@@ -2492,12 +2492,12 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>105299.7170304584</v>
+        <v>105337.7052184007</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>45811.43819444445</v>
+        <v>45811.45138888889</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
@@ -2505,12 +2505,12 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>105306.6756509086</v>
+        <v>105338.2472936244</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>45811.44166666667</v>
+        <v>45811.45555555556</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
@@ -2518,12 +2518,12 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>105318.2647161414</v>
+        <v>105312.4130562379</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>45811.44513888889</v>
+        <v>45811.45833333334</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -2531,12 +2531,12 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>105330.2557961347</v>
+        <v>105320.2424303424</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>45811.44791666666</v>
+        <v>45811.46180555555</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
@@ -2544,12 +2544,12 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>105337.7052184007</v>
+        <v>105342.1708447905</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>45811.45138888889</v>
+        <v>45811.46597222222</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
@@ -2557,12 +2557,12 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>105338.2472936244</v>
+        <v>105345.9584333256</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>45811.45555555556</v>
+        <v>45811.46875</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
@@ -2570,12 +2570,12 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>105312.4130562379</v>
+        <v>105347.1846610117</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>45811.45833333334</v>
+        <v>45811.47222222222</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
@@ -2583,12 +2583,12 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>105320.2424303424</v>
+        <v>105336.4496857141</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>45811.46180555555</v>
+        <v>45811.47638888889</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
@@ -2596,12 +2596,12 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>105342.1708447905</v>
+        <v>105310.7904057447</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>45811.46597222222</v>
+        <v>45811.47986111111</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
@@ -2609,12 +2609,12 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>105345.9584333256</v>
+        <v>105300.6145928468</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>45811.46875</v>
+        <v>45811.48263888889</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
@@ -2622,12 +2622,12 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>105347.1846610117</v>
+        <v>105287.0266599267</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>45811.47222222222</v>
+        <v>45811.48611111111</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
@@ -2635,12 +2635,12 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>105336.4496857141</v>
+        <v>105279.129443044</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>45811.47638888889</v>
+        <v>45811.48958333334</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
@@ -2648,12 +2648,12 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>105310.7904057447</v>
+        <v>105265.4544706375</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>45811.47986111111</v>
+        <v>45811.49375</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
@@ -2661,12 +2661,12 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>105300.6145928468</v>
+        <v>105274.4189484147</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>45811.48263888889</v>
+        <v>45811.49722222222</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
@@ -2674,12 +2674,12 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>105287.0266599267</v>
+        <v>105291.3022692834</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>45811.48611111111</v>
+        <v>45811.50069444445</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
@@ -2687,12 +2687,12 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>105279.129443044</v>
+        <v>105311.3283112125</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>45811.48958333334</v>
+        <v>45811.50347222222</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
@@ -2700,12 +2700,12 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>105265.4544706375</v>
+        <v>105326.5858560687</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>45811.49375</v>
+        <v>45811.50763888889</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
@@ -2713,12 +2713,12 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>105274.4189484147</v>
+        <v>105322.9532278488</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>45811.49722222222</v>
+        <v>45811.51111111111</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
@@ -2726,12 +2726,12 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>105291.3022692834</v>
+        <v>105345.6944017815</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>45811.50069444445</v>
+        <v>45811.51458333333</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
@@ -2739,12 +2739,12 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>105311.3283112125</v>
+        <v>105366.1611450923</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>45811.50347222222</v>
+        <v>45811.51736111111</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
@@ -2752,12 +2752,12 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>105326.5858560687</v>
+        <v>105387.3059028628</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>45811.50763888889</v>
+        <v>45811.52083333334</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
@@ -2765,12 +2765,12 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>105322.9532278488</v>
+        <v>105401.4437730369</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>45811.51111111111</v>
+        <v>45811.525</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
@@ -2778,12 +2778,12 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>105345.6944017815</v>
+        <v>105383.1536165563</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>45811.51458333333</v>
+        <v>45811.52777777778</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
@@ -2791,12 +2791,12 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>105366.1611450923</v>
+        <v>105368.8551127125</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>45811.51736111111</v>
+        <v>45811.53194444445</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
@@ -2804,12 +2804,12 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>105387.3059028628</v>
+        <v>105374.593591401</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>45811.52083333334</v>
+        <v>45811.53541666667</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
@@ -2817,12 +2817,12 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>105401.4437730369</v>
+        <v>105377.332394907</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>45811.525</v>
+        <v>45811.53888888889</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
@@ -2830,12 +2830,12 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>105383.1536165563</v>
+        <v>105358.9727811935</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>45811.52777777778</v>
+        <v>45811.54166666666</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
@@ -2843,12 +2843,12 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>105368.8551127125</v>
+        <v>105355.5882025063</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>45811.53194444445</v>
+        <v>45811.54583333333</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
@@ -2856,12 +2856,12 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>105374.593591401</v>
+        <v>105372.7448761102</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>45811.53541666667</v>
+        <v>45811.54930555556</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
@@ -2869,12 +2869,12 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>105377.332394907</v>
+        <v>105384.2562363141</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>45811.53888888889</v>
+        <v>45811.55208333334</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
@@ -2882,12 +2882,12 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>105358.9727811935</v>
+        <v>105395.4633836066</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>45811.54166666666</v>
+        <v>45811.55555555555</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
@@ -2895,12 +2895,12 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>105355.5882025063</v>
+        <v>105401.1373806469</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>45811.54583333333</v>
+        <v>45811.55972222222</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
@@ -2908,12 +2908,12 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>105372.7448761102</v>
+        <v>105397.1838193037</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>45811.54930555556</v>
+        <v>45811.56319444445</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
@@ -2921,12 +2921,12 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>105384.2562363141</v>
+        <v>105420.5168892924</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>45811.55208333334</v>
+        <v>45811.56597222222</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
@@ -2934,12 +2934,12 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>105395.4633836066</v>
+        <v>105350.5267795989</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>45811.55555555555</v>
+        <v>45811.57013888889</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
@@ -2947,12 +2947,12 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>105401.1373806469</v>
+        <v>105328.4817449159</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>45811.55972222222</v>
+        <v>45811.57361111111</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
@@ -2960,12 +2960,12 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>105397.1838193037</v>
+        <v>105563.86731493</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>45811.56319444445</v>
+        <v>45811.57708333333</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
@@ -2973,12 +2973,12 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>105420.5168892924</v>
+        <v>105520.2487574504</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>45811.56597222222</v>
+        <v>45811.57986111111</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
@@ -2986,12 +2986,12 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>105350.5267795989</v>
+        <v>105494.6832694082</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>45811.57013888889</v>
+        <v>45811.58402777778</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
@@ -2999,12 +2999,12 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>105328.4817449159</v>
+        <v>105535.6199719229</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>45811.57361111111</v>
+        <v>45811.5875</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
@@ -3012,12 +3012,12 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>105563.86731493</v>
+        <v>105537.0980434854</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>45811.57708333333</v>
+        <v>45811.59166666667</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
@@ -3025,12 +3025,12 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>105520.2487574504</v>
+        <v>105398.1368651523</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>45811.57986111111</v>
+        <v>45811.59375</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
@@ -3038,12 +3038,12 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>105494.6832694082</v>
+        <v>105346.8155781531</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>45811.58402777778</v>
+        <v>45811.59722222222</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
@@ -3051,12 +3051,12 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>105535.6199719229</v>
+        <v>105394.9794547613</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>45811.5875</v>
+        <v>45811.60138888889</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
@@ -3064,12 +3064,12 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>105537.0980434854</v>
+        <v>105526.8864590389</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>45811.59166666667</v>
+        <v>45811.60486111111</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
@@ -3077,12 +3077,12 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>105398.1368651523</v>
+        <v>105620.819228916</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>45811.59375</v>
+        <v>45811.60763888889</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
@@ -3090,12 +3090,12 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>105346.8155781531</v>
+        <v>105707.3001037867</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>45811.59722222222</v>
+        <v>45811.61180555556</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
@@ -3103,12 +3103,12 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>105394.9794547613</v>
+        <v>105771.4325215036</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>45811.60138888889</v>
+        <v>45811.61527777778</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
@@ -3116,12 +3116,12 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>105526.8864590389</v>
+        <v>105929.1729657511</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>45811.60486111111</v>
+        <v>45811.61805555555</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
@@ -3129,12 +3129,12 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>105620.819228916</v>
+        <v>105969.9786182859</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>45811.60763888889</v>
+        <v>45811.62222222222</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
@@ -3142,12 +3142,12 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>105707.3001037867</v>
+        <v>106136.14262079</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>45811.61180555556</v>
+        <v>45811.62847222222</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
@@ -3155,12 +3155,12 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>105771.4325215036</v>
+        <v>106580.6876117883</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>45811.61527777778</v>
+        <v>45811.63055555556</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
@@ -3168,12 +3168,12 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>105929.1729657511</v>
+        <v>106615.8857098741</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>45811.61805555555</v>
+        <v>45811.63263888889</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
@@ -3181,12 +3181,12 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>105969.9786182859</v>
+        <v>106639.7908764442</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>45811.62222222222</v>
+        <v>45811.63541666666</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
@@ -3194,12 +3194,12 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>106136.14262079</v>
+        <v>106666.5543572684</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>45811.62847222222</v>
+        <v>45811.63958333333</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
@@ -3207,12 +3207,12 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>106580.6876117883</v>
+        <v>106645.4856680815</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>45811.63055555556</v>
+        <v>45811.64305555556</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
@@ -3220,12 +3220,12 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>106615.8857098741</v>
+        <v>106662.239205562</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>45811.63263888889</v>
+        <v>45811.64583333334</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
@@ -3233,12 +3233,12 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>106639.7908764442</v>
+        <v>106768.2738070797</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>45811.63541666666</v>
+        <v>45811.64930555555</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
@@ -3246,12 +3246,12 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>106666.5543572684</v>
+        <v>106747.409957151</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>45811.63958333333</v>
+        <v>45811.65416666667</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
@@ -3259,12 +3259,12 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>106645.4856680815</v>
+        <v>106722.5411607913</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>45811.64305555556</v>
+        <v>45811.65625</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
@@ -3272,12 +3272,12 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>106662.239205562</v>
+        <v>106807.4065579771</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>45811.64583333334</v>
+        <v>45811.65972222222</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
@@ -3285,12 +3285,12 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>106768.2738070797</v>
+        <v>106756.3951351712</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>45811.64930555555</v>
+        <v>45811.66388888889</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
@@ -3298,12 +3298,12 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>106747.409957151</v>
+        <v>106721.4416213072</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>45811.65416666667</v>
+        <v>45811.66736111111</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
@@ -3311,12 +3311,12 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>106722.5411607913</v>
+        <v>106723.2863908719</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>45811.65625</v>
+        <v>45811.67013888889</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
@@ -3324,12 +3324,12 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>106807.4065579771</v>
+        <v>106691.0178338914</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>45811.65972222222</v>
+        <v>45811.67361111111</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
@@ -3337,12 +3337,12 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>106756.3951351712</v>
+        <v>106644.4565924272</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>45811.66388888889</v>
+        <v>45811.67777777778</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
@@ -3350,12 +3350,12 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>106721.4416213072</v>
+        <v>106546.2450566259</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>45811.66736111111</v>
+        <v>45811.68125</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
@@ -3363,12 +3363,12 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>106723.2863908719</v>
+        <v>106525.2191022238</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>45811.67013888889</v>
+        <v>45811.68402777778</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
@@ -3376,12 +3376,12 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>106691.0178338914</v>
+        <v>106503.9807451088</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>45811.67361111111</v>
+        <v>45811.68819444445</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
@@ -3389,12 +3389,12 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>106644.4565924272</v>
+        <v>106449.2604840012</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>45811.67777777778</v>
+        <v>45811.69166666667</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
@@ -3402,12 +3402,12 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>106546.2450566259</v>
+        <v>106456.2342241507</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>45811.68125</v>
+        <v>45811.69513888889</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
@@ -3415,12 +3415,12 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>106525.2191022238</v>
+        <v>106427.3252924552</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>45811.68402777778</v>
+        <v>45811.69861111111</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
@@ -3428,12 +3428,12 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>106503.9807451088</v>
+        <v>106353.3929113803</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>45811.68819444445</v>
+        <v>45811.70138888889</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
@@ -3441,12 +3441,12 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>106449.2604840012</v>
+        <v>106314.780082326</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>45811.69166666667</v>
+        <v>45811.70486111111</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
@@ -3454,12 +3454,12 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>106456.2342241507</v>
+        <v>106270.7604261671</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>45811.69513888889</v>
+        <v>45811.70902777778</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
@@ -3467,12 +3467,12 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>106427.3252924552</v>
+        <v>106181.7181167179</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>45811.69861111111</v>
+        <v>45811.7125</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
@@ -3480,12 +3480,12 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>106353.3929113803</v>
+        <v>106157.9031966754</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>45811.70138888889</v>
+        <v>45811.71527777778</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
@@ -3493,12 +3493,12 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>106314.780082326</v>
+        <v>106116.3370073622</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>45811.70486111111</v>
+        <v>45811.71875</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
@@ -3506,12 +3506,12 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>106270.7604261671</v>
+        <v>106097.7667692854</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>45811.70902777778</v>
+        <v>45811.72291666667</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
@@ -3519,12 +3519,12 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>106181.7181167179</v>
+        <v>106106.8172818938</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>45811.7125</v>
+        <v>45811.72638888889</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
@@ -3532,12 +3532,12 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>106157.9031966754</v>
+        <v>106144.9286812226</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>45811.71527777778</v>
+        <v>45811.72916666666</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
@@ -3545,12 +3545,12 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>106116.3370073622</v>
+        <v>106145.4865659015</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>45811.71875</v>
+        <v>45811.73263888889</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
@@ -3558,12 +3558,12 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>106097.7667692854</v>
+        <v>106105.0420288331</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>45811.72291666667</v>
+        <v>45811.73680555556</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
@@ -3571,12 +3571,12 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>106106.8172818938</v>
+        <v>106045.5325359498</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>45811.72638888889</v>
+        <v>45811.74027777778</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
@@ -3584,12 +3584,12 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>106144.9286812226</v>
+        <v>106013.0504863517</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>45811.72916666666</v>
+        <v>45811.74305555555</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
@@ -3597,12 +3597,12 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>106145.4865659015</v>
+        <v>106005.3218221794</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>45811.73263888889</v>
+        <v>45811.74652777778</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
@@ -3610,12 +3610,12 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>106105.0420288331</v>
+        <v>105979.059917837</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>45811.73680555556</v>
+        <v>45811.75</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
@@ -3623,12 +3623,12 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>106045.5325359498</v>
+        <v>105959.6086106451</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>45811.74027777778</v>
+        <v>45811.75416666667</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
@@ -3636,12 +3636,12 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>106013.0504863517</v>
+        <v>105896.9618143584</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>45811.74305555555</v>
+        <v>45811.75763888889</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
@@ -3649,12 +3649,12 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>106005.3218221794</v>
+        <v>105864.0841958393</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>45811.74652777778</v>
+        <v>45811.76041666666</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
@@ -3662,12 +3662,12 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>105979.059917837</v>
+        <v>105820.2454019319</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>45811.75</v>
+        <v>45811.76388888889</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
@@ -3675,12 +3675,12 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>105959.6086106451</v>
+        <v>105788.8552622421</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>45811.75416666667</v>
+        <v>45811.76805555556</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
@@ -3688,12 +3688,12 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>105896.9618143584</v>
+        <v>105802.2753690329</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>45811.75763888889</v>
+        <v>45811.77152777778</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
@@ -3701,12 +3701,12 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>105864.0841958393</v>
+        <v>105781.2067068138</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>45811.76041666666</v>
+        <v>45811.77430555555</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
@@ -3714,12 +3714,12 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>105820.2454019319</v>
+        <v>105794.2408297444</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>45811.76388888889</v>
+        <v>45811.77916666667</v>
       </c>
       <c r="B253" t="inlineStr">
         <is>
@@ -3727,12 +3727,12 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>105788.8552622421</v>
+        <v>105865.8821190338</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>45811.76805555556</v>
+        <v>45811.78194444445</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>
@@ -3740,12 +3740,12 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>105802.2753690329</v>
+        <v>105984.4304806617</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>45811.77152777778</v>
+        <v>45811.78541666667</v>
       </c>
       <c r="B255" t="inlineStr">
         <is>
@@ -3753,12 +3753,12 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>105781.2067068138</v>
+        <v>106015.2635337583</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>45811.77430555555</v>
+        <v>45811.78888888889</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>
@@ -3766,12 +3766,12 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>105794.2408297444</v>
+        <v>105957.8785661339</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>45811.77916666667</v>
+        <v>45811.79305555556</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
@@ -3779,12 +3779,12 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>105865.8821190338</v>
+        <v>106031.5156600727</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>45811.78194444445</v>
+        <v>45811.79583333333</v>
       </c>
       <c r="B258" t="inlineStr">
         <is>
@@ -3792,12 +3792,12 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>105984.4304806617</v>
+        <v>106061.0464780326</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>45811.78541666667</v>
+        <v>45811.79861111111</v>
       </c>
       <c r="B259" t="inlineStr">
         <is>
@@ -3805,12 +3805,12 @@
         </is>
       </c>
       <c r="C259" t="n">
-        <v>106015.2635337583</v>
+        <v>106070.4519933902</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>45811.78888888889</v>
+        <v>45811.80208333334</v>
       </c>
       <c r="B260" t="inlineStr">
         <is>
@@ -3818,12 +3818,12 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>105957.8785661339</v>
+        <v>106094.282358704</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>45811.79305555556</v>
+        <v>45811.80625</v>
       </c>
       <c r="B261" t="inlineStr">
         <is>
@@ -3831,12 +3831,12 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>106031.5156600727</v>
+        <v>106132.9785286417</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>45811.79583333333</v>
+        <v>45811.80972222222</v>
       </c>
       <c r="B262" t="inlineStr">
         <is>
@@ -3844,12 +3844,12 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>106061.0464780326</v>
+        <v>106224.7843238325</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>45811.79861111111</v>
+        <v>45811.8125</v>
       </c>
       <c r="B263" t="inlineStr">
         <is>
@@ -3857,12 +3857,12 @@
         </is>
       </c>
       <c r="C263" t="n">
-        <v>106070.4519933902</v>
+        <v>106293.1458797791</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>45811.80208333334</v>
+        <v>45811.81666666667</v>
       </c>
       <c r="B264" t="inlineStr">
         <is>
@@ -3870,12 +3870,12 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>106094.282358704</v>
+        <v>106328.9007020705</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>45811.80625</v>
+        <v>45811.82083333333</v>
       </c>
       <c r="B265" t="inlineStr">
         <is>
@@ -3883,12 +3883,12 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>106132.9785286417</v>
+        <v>106353.0714141921</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>45811.80972222222</v>
+        <v>45811.82361111111</v>
       </c>
       <c r="B266" t="inlineStr">
         <is>
@@ -3896,12 +3896,12 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>106224.7843238325</v>
+        <v>106344.0616792463</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>45811.8125</v>
+        <v>45811.82638888889</v>
       </c>
       <c r="B267" t="inlineStr">
         <is>
@@ -3909,12 +3909,12 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>106293.1458797791</v>
+        <v>106337.463585876</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>45811.81666666667</v>
+        <v>45811.83055555556</v>
       </c>
       <c r="B268" t="inlineStr">
         <is>
@@ -3922,12 +3922,12 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>106328.9007020705</v>
+        <v>106290.7022632873</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>45811.82083333333</v>
+        <v>45811.83333333334</v>
       </c>
       <c r="B269" t="inlineStr">
         <is>
@@ -3935,12 +3935,12 @@
         </is>
       </c>
       <c r="C269" t="n">
-        <v>106353.0714141921</v>
+        <v>106277.4408874424</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>45811.82361111111</v>
+        <v>45811.83680555555</v>
       </c>
       <c r="B270" t="inlineStr">
         <is>
@@ -3948,12 +3948,12 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>106344.0616792463</v>
+        <v>106251.3197307283</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>45811.82638888889</v>
+        <v>45811.84097222222</v>
       </c>
       <c r="B271" t="inlineStr">
         <is>
@@ -3961,12 +3961,12 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>106337.463585876</v>
+        <v>106174.3690889322</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>45811.83055555556</v>
+        <v>45811.84444444445</v>
       </c>
       <c r="B272" t="inlineStr">
         <is>
@@ -3974,12 +3974,12 @@
         </is>
       </c>
       <c r="C272" t="n">
-        <v>106290.7022632873</v>
+        <v>106129.783604317</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>45811.83333333334</v>
+        <v>45811.84722222222</v>
       </c>
       <c r="B273" t="inlineStr">
         <is>
@@ -3987,12 +3987,12 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>106277.4408874424</v>
+        <v>106100.2363792875</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>45811.83680555555</v>
+        <v>45811.85138888889</v>
       </c>
       <c r="B274" t="inlineStr">
         <is>
@@ -4000,12 +4000,12 @@
         </is>
       </c>
       <c r="C274" t="n">
-        <v>106251.3197307283</v>
+        <v>106055.4585004751</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>45811.84097222222</v>
+        <v>45811.85486111111</v>
       </c>
       <c r="B275" t="inlineStr">
         <is>
@@ -4013,12 +4013,12 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>106174.3690889322</v>
+        <v>105947.6544487146</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>45811.84444444445</v>
+        <v>45811.85833333333</v>
       </c>
       <c r="B276" t="inlineStr">
         <is>
@@ -4026,12 +4026,12 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>106129.783604317</v>
+        <v>105857.9134840074</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>45811.84722222222</v>
+        <v>45811.86180555556</v>
       </c>
       <c r="B277" t="inlineStr">
         <is>
@@ -4039,12 +4039,12 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>106100.2363792875</v>
+        <v>105876.1261835329</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>45811.85138888889</v>
+        <v>45811.86458333334</v>
       </c>
       <c r="B278" t="inlineStr">
         <is>
@@ -4052,12 +4052,12 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>106055.4585004751</v>
+        <v>105909.3739717677</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>45811.85486111111</v>
+        <v>45811.86805555555</v>
       </c>
       <c r="B279" t="inlineStr">
         <is>
@@ -4065,12 +4065,12 @@
         </is>
       </c>
       <c r="C279" t="n">
-        <v>105947.6544487146</v>
+        <v>105916.9788024772</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>45811.85833333333</v>
+        <v>45811.87222222222</v>
       </c>
       <c r="B280" t="inlineStr">
         <is>
@@ -4078,12 +4078,12 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>105857.9134840074</v>
+        <v>105855.7807681625</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>45811.86180555556</v>
+        <v>45811.87569444445</v>
       </c>
       <c r="B281" t="inlineStr">
         <is>
@@ -4091,12 +4091,12 @@
         </is>
       </c>
       <c r="C281" t="n">
-        <v>105876.1261835329</v>
+        <v>105835.6410210193</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>45811.86458333334</v>
+        <v>45811.87916666667</v>
       </c>
       <c r="B282" t="inlineStr">
         <is>
@@ -4104,12 +4104,12 @@
         </is>
       </c>
       <c r="C282" t="n">
-        <v>105909.3739717677</v>
+        <v>105773.377305565</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>45811.86805555555</v>
+        <v>45811.88263888889</v>
       </c>
       <c r="B283" t="inlineStr">
         <is>
@@ -4117,12 +4117,12 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>105916.9788024772</v>
+        <v>105793.309017803</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>45811.87222222222</v>
+        <v>45811.88611111111</v>
       </c>
       <c r="B284" t="inlineStr">
         <is>
@@ -4130,12 +4130,12 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>105855.7807681625</v>
+        <v>105751.7157466696</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>45811.87569444445</v>
+        <v>45811.88958333333</v>
       </c>
       <c r="B285" t="inlineStr">
         <is>
@@ -4143,12 +4143,12 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>105835.6410210193</v>
+        <v>105694.7202956029</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>45811.87916666667</v>
+        <v>45811.89236111111</v>
       </c>
       <c r="B286" t="inlineStr">
         <is>
@@ -4156,12 +4156,12 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>105773.377305565</v>
+        <v>105587.5295346528</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>45811.88263888889</v>
+        <v>45811.89583333334</v>
       </c>
       <c r="B287" t="inlineStr">
         <is>
@@ -4169,12 +4169,12 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>105793.309017803</v>
+        <v>105607.5646299082</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>45811.88472222222</v>
+        <v>45811.89652777778</v>
       </c>
       <c r="B288" t="inlineStr">
         <is>
@@ -4182,12 +4182,12 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>105767.3673022501</v>
+        <v>105613.2805266536</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>45810.88541666666</v>
+        <v>45810.89583333334</v>
       </c>
       <c r="B289" t="inlineStr">
         <is>
@@ -4195,12 +4195,12 @@
         </is>
       </c>
       <c r="C289" t="n">
-        <v>2544.820146963019</v>
+        <v>2545.640327946352</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>45810.88958333333</v>
+        <v>45810.89930555555</v>
       </c>
       <c r="B290" t="inlineStr">
         <is>
@@ -4208,12 +4208,12 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>2544.959982256283</v>
+        <v>2546.545120050698</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
-        <v>45810.89305555556</v>
+        <v>45810.90347222222</v>
       </c>
       <c r="B291" t="inlineStr">
         <is>
@@ -4221,12 +4221,12 @@
         </is>
       </c>
       <c r="C291" t="n">
-        <v>2544.968457447055</v>
+        <v>2547.013984540493</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>45810.89583333334</v>
+        <v>45810.90694444445</v>
       </c>
       <c r="B292" t="inlineStr">
         <is>
@@ -4234,12 +4234,12 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>2545.640327946352</v>
+        <v>2547.791213760216</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>45810.89930555555</v>
+        <v>45810.91041666667</v>
       </c>
       <c r="B293" t="inlineStr">
         <is>
@@ -4247,12 +4247,12 @@
         </is>
       </c>
       <c r="C293" t="n">
-        <v>2546.545120050698</v>
+        <v>2549.543722409027</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
-        <v>45810.90347222222</v>
+        <v>45810.91388888889</v>
       </c>
       <c r="B294" t="inlineStr">
         <is>
@@ -4260,12 +4260,12 @@
         </is>
       </c>
       <c r="C294" t="n">
-        <v>2547.013984540493</v>
+        <v>2553.227061327573</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
-        <v>45810.90694444445</v>
+        <v>45810.91736111111</v>
       </c>
       <c r="B295" t="inlineStr">
         <is>
@@ -4273,12 +4273,12 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>2547.791213760216</v>
+        <v>2555.305219621107</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
-        <v>45810.91041666667</v>
+        <v>45810.92013888889</v>
       </c>
       <c r="B296" t="inlineStr">
         <is>
@@ -4286,12 +4286,12 @@
         </is>
       </c>
       <c r="C296" t="n">
-        <v>2549.543722409027</v>
+        <v>2558.912633815058</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
-        <v>45810.91388888889</v>
+        <v>45810.92430555556</v>
       </c>
       <c r="B297" t="inlineStr">
         <is>
@@ -4299,12 +4299,12 @@
         </is>
       </c>
       <c r="C297" t="n">
-        <v>2553.227061327573</v>
+        <v>2561.739140531306</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
-        <v>45810.91736111111</v>
+        <v>45810.92708333334</v>
       </c>
       <c r="B298" t="inlineStr">
         <is>
@@ -4312,12 +4312,12 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>2555.305219621107</v>
+        <v>2565.078472403036</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
-        <v>45810.92013888889</v>
+        <v>45810.93055555555</v>
       </c>
       <c r="B299" t="inlineStr">
         <is>
@@ -4325,12 +4325,12 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>2558.912633815058</v>
+        <v>2569.821883124935</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>45810.92430555556</v>
+        <v>45810.93472222222</v>
       </c>
       <c r="B300" t="inlineStr">
         <is>
@@ -4338,12 +4338,12 @@
         </is>
       </c>
       <c r="C300" t="n">
-        <v>2561.739140531306</v>
+        <v>2573.515699890625</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>45810.92708333334</v>
+        <v>45810.93819444445</v>
       </c>
       <c r="B301" t="inlineStr">
         <is>
@@ -4351,12 +4351,12 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>2565.078472403036</v>
+        <v>2576.026486696988</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>45810.93055555555</v>
+        <v>45810.94166666667</v>
       </c>
       <c r="B302" t="inlineStr">
         <is>
@@ -4364,12 +4364,12 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>2569.821883124935</v>
+        <v>2577.749161630557</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>45810.93472222222</v>
+        <v>45810.94513888889</v>
       </c>
       <c r="B303" t="inlineStr">
         <is>
@@ -4377,12 +4377,12 @@
         </is>
       </c>
       <c r="C303" t="n">
-        <v>2573.515699890625</v>
+        <v>2580.432226304097</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
-        <v>45810.93819444445</v>
+        <v>45810.94791666666</v>
       </c>
       <c r="B304" t="inlineStr">
         <is>
@@ -4390,12 +4390,12 @@
         </is>
       </c>
       <c r="C304" t="n">
-        <v>2576.026486696988</v>
+        <v>2580.563201304119</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
-        <v>45810.94166666667</v>
+        <v>45810.95138888889</v>
       </c>
       <c r="B305" t="inlineStr">
         <is>
@@ -4403,12 +4403,12 @@
         </is>
       </c>
       <c r="C305" t="n">
-        <v>2577.749161630557</v>
+        <v>2580.246655435796</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
-        <v>45810.94513888889</v>
+        <v>45810.95486111111</v>
       </c>
       <c r="B306" t="inlineStr">
         <is>
@@ -4416,12 +4416,12 @@
         </is>
       </c>
       <c r="C306" t="n">
-        <v>2580.432226304097</v>
+        <v>2581.05745462559</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
-        <v>45810.94791666666</v>
+        <v>45810.96388888889</v>
       </c>
       <c r="B307" t="inlineStr">
         <is>
@@ -4429,12 +4429,12 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>2580.563201304119</v>
+        <v>2584.317407064798</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
-        <v>45810.95138888889</v>
+        <v>45810.96527777778</v>
       </c>
       <c r="B308" t="inlineStr">
         <is>
@@ -4442,12 +4442,12 @@
         </is>
       </c>
       <c r="C308" t="n">
-        <v>2580.246655435796</v>
+        <v>2586.123793737727</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
-        <v>45810.95486111111</v>
+        <v>45810.96875</v>
       </c>
       <c r="B309" t="inlineStr">
         <is>
@@ -4455,12 +4455,12 @@
         </is>
       </c>
       <c r="C309" t="n">
-        <v>2581.05745462559</v>
+        <v>2592.179878549166</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
-        <v>45810.96388888889</v>
+        <v>45810.97291666667</v>
       </c>
       <c r="B310" t="inlineStr">
         <is>
@@ -4468,12 +4468,12 @@
         </is>
       </c>
       <c r="C310" t="n">
-        <v>2584.317407064798</v>
+        <v>2592.985430874469</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
-        <v>45810.96527777778</v>
+        <v>45810.97638888889</v>
       </c>
       <c r="B311" t="inlineStr">
         <is>
@@ -4481,12 +4481,12 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>2586.123793737727</v>
+        <v>2597.030934357479</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
-        <v>45810.96875</v>
+        <v>45810.97986111111</v>
       </c>
       <c r="B312" t="inlineStr">
         <is>
@@ -4494,12 +4494,12 @@
         </is>
       </c>
       <c r="C312" t="n">
-        <v>2592.179878549166</v>
+        <v>2598.797131972039</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
-        <v>45810.97291666667</v>
+        <v>45810.98333333333</v>
       </c>
       <c r="B313" t="inlineStr">
         <is>
@@ -4507,12 +4507,12 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>2592.985430874469</v>
+        <v>2599.64090918305</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>45810.97638888889</v>
+        <v>45810.98611111111</v>
       </c>
       <c r="B314" t="inlineStr">
         <is>
@@ -4520,12 +4520,12 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>2597.030934357479</v>
+        <v>2603.403299580169</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
-        <v>45810.97986111111</v>
+        <v>45810.98958333334</v>
       </c>
       <c r="B315" t="inlineStr">
         <is>
@@ -4533,12 +4533,12 @@
         </is>
       </c>
       <c r="C315" t="n">
-        <v>2598.797131972039</v>
+        <v>2606.759219540195</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
-        <v>45810.98333333333</v>
+        <v>45810.99375</v>
       </c>
       <c r="B316" t="inlineStr">
         <is>
@@ -4546,12 +4546,12 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>2599.64090918305</v>
+        <v>2607.59519289202</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
-        <v>45810.98611111111</v>
+        <v>45810.99722222222</v>
       </c>
       <c r="B317" t="inlineStr">
         <is>
@@ -4559,12 +4559,12 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>2603.403299580169</v>
+        <v>2609.737253959435</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
-        <v>45810.98958333334</v>
+        <v>45811.00069444445</v>
       </c>
       <c r="B318" t="inlineStr">
         <is>
@@ -4572,12 +4572,12 @@
         </is>
       </c>
       <c r="C318" t="n">
-        <v>2606.759219540195</v>
+        <v>2610.863961190644</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
-        <v>45810.99375</v>
+        <v>45811.00416666667</v>
       </c>
       <c r="B319" t="inlineStr">
         <is>
@@ -4585,12 +4585,12 @@
         </is>
       </c>
       <c r="C319" t="n">
-        <v>2607.59519289202</v>
+        <v>2609.307566981871</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
-        <v>45810.99722222222</v>
+        <v>45811.00694444445</v>
       </c>
       <c r="B320" t="inlineStr">
         <is>
@@ -4598,12 +4598,12 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>2609.737253959435</v>
+        <v>2609.276552849236</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
-        <v>45811.00069444445</v>
+        <v>45811.01041666666</v>
       </c>
       <c r="B321" t="inlineStr">
         <is>
@@ -4611,12 +4611,12 @@
         </is>
       </c>
       <c r="C321" t="n">
-        <v>2610.863961190644</v>
+        <v>2610.777955145149</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
-        <v>45811.00416666667</v>
+        <v>45811.01388888889</v>
       </c>
       <c r="B322" t="inlineStr">
         <is>
@@ -4624,12 +4624,12 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>2609.307566981871</v>
+        <v>2613.216108217575</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
-        <v>45811.00694444445</v>
+        <v>45811.01736111111</v>
       </c>
       <c r="B323" t="inlineStr">
         <is>
@@ -4637,12 +4637,12 @@
         </is>
       </c>
       <c r="C323" t="n">
-        <v>2609.276552849236</v>
+        <v>2615.202217273506</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
-        <v>45811.01041666666</v>
+        <v>45811.02152777778</v>
       </c>
       <c r="B324" t="inlineStr">
         <is>
@@ -4650,12 +4650,12 @@
         </is>
       </c>
       <c r="C324" t="n">
-        <v>2610.777955145149</v>
+        <v>2617.694978066695</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
-        <v>45811.01388888889</v>
+        <v>45811.02430555555</v>
       </c>
       <c r="B325" t="inlineStr">
         <is>
@@ -4663,12 +4663,12 @@
         </is>
       </c>
       <c r="C325" t="n">
-        <v>2613.216108217575</v>
+        <v>2618.525472525241</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
-        <v>45811.01736111111</v>
+        <v>45811.02777777778</v>
       </c>
       <c r="B326" t="inlineStr">
         <is>
@@ -4676,12 +4676,12 @@
         </is>
       </c>
       <c r="C326" t="n">
-        <v>2615.202217273506</v>
+        <v>2620.432657568479</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
-        <v>45811.02152777778</v>
+        <v>45811.03194444445</v>
       </c>
       <c r="B327" t="inlineStr">
         <is>
@@ -4689,12 +4689,12 @@
         </is>
       </c>
       <c r="C327" t="n">
-        <v>2617.694978066695</v>
+        <v>2620.113837457704</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
-        <v>45811.02430555555</v>
+        <v>45811.03541666667</v>
       </c>
       <c r="B328" t="inlineStr">
         <is>
@@ -4702,12 +4702,12 @@
         </is>
       </c>
       <c r="C328" t="n">
-        <v>2618.525472525241</v>
+        <v>2621.511838256122</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
-        <v>45811.02777777778</v>
+        <v>45811.03819444445</v>
       </c>
       <c r="B329" t="inlineStr">
         <is>
@@ -4715,12 +4715,12 @@
         </is>
       </c>
       <c r="C329" t="n">
-        <v>2620.432657568479</v>
+        <v>2621.865191000948</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
-        <v>45811.03194444445</v>
+        <v>45811.04166666666</v>
       </c>
       <c r="B330" t="inlineStr">
         <is>
@@ -4728,12 +4728,12 @@
         </is>
       </c>
       <c r="C330" t="n">
-        <v>2620.113837457704</v>
+        <v>2622.030534294716</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
-        <v>45811.03541666667</v>
+        <v>45811.04513888889</v>
       </c>
       <c r="B331" t="inlineStr">
         <is>
@@ -4741,12 +4741,12 @@
         </is>
       </c>
       <c r="C331" t="n">
-        <v>2621.511838256122</v>
+        <v>2622.446448878957</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
-        <v>45811.03819444445</v>
+        <v>45811.04930555556</v>
       </c>
       <c r="B332" t="inlineStr">
         <is>
@@ -4754,12 +4754,12 @@
         </is>
       </c>
       <c r="C332" t="n">
-        <v>2621.865191000948</v>
+        <v>2624.028395846329</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
-        <v>45811.04166666666</v>
+        <v>45811.05277777778</v>
       </c>
       <c r="B333" t="inlineStr">
         <is>
@@ -4767,12 +4767,12 @@
         </is>
       </c>
       <c r="C333" t="n">
-        <v>2622.030534294716</v>
+        <v>2623.220059820432</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
-        <v>45811.04513888889</v>
+        <v>45811.05625</v>
       </c>
       <c r="B334" t="inlineStr">
         <is>
@@ -4780,12 +4780,12 @@
         </is>
       </c>
       <c r="C334" t="n">
-        <v>2622.446448878957</v>
+        <v>2623.220543137766</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
-        <v>45811.04930555556</v>
+        <v>45811.05902777778</v>
       </c>
       <c r="B335" t="inlineStr">
         <is>
@@ -4793,12 +4793,12 @@
         </is>
       </c>
       <c r="C335" t="n">
-        <v>2624.028395846329</v>
+        <v>2623.505544099347</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
-        <v>45811.05277777778</v>
+        <v>45811.0625</v>
       </c>
       <c r="B336" t="inlineStr">
         <is>
@@ -4806,12 +4806,12 @@
         </is>
       </c>
       <c r="C336" t="n">
-        <v>2623.220059820432</v>
+        <v>2624.783005999718</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
-        <v>45811.05625</v>
+        <v>45811.06666666667</v>
       </c>
       <c r="B337" t="inlineStr">
         <is>
@@ -4819,12 +4819,12 @@
         </is>
       </c>
       <c r="C337" t="n">
-        <v>2623.220543137766</v>
+        <v>2625.622880821783</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
-        <v>45811.05902777778</v>
+        <v>45811.06944444445</v>
       </c>
       <c r="B338" t="inlineStr">
         <is>
@@ -4832,12 +4832,12 @@
         </is>
       </c>
       <c r="C338" t="n">
-        <v>2623.505544099347</v>
+        <v>2628.653773736884</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
-        <v>45811.0625</v>
+        <v>45811.07291666666</v>
       </c>
       <c r="B339" t="inlineStr">
         <is>
@@ -4845,12 +4845,12 @@
         </is>
       </c>
       <c r="C339" t="n">
-        <v>2624.783005999718</v>
+        <v>2632.550856433039</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
-        <v>45811.06666666667</v>
+        <v>45811.07638888889</v>
       </c>
       <c r="B340" t="inlineStr">
         <is>
@@ -4858,12 +4858,12 @@
         </is>
       </c>
       <c r="C340" t="n">
-        <v>2625.622880821783</v>
+        <v>2636.175020031858</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
-        <v>45811.06944444445</v>
+        <v>45811.08055555556</v>
       </c>
       <c r="B341" t="inlineStr">
         <is>
@@ -4871,12 +4871,12 @@
         </is>
       </c>
       <c r="C341" t="n">
-        <v>2628.653773736884</v>
+        <v>2639.022870500949</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
-        <v>45811.07291666666</v>
+        <v>45811.08402777778</v>
       </c>
       <c r="B342" t="inlineStr">
         <is>
@@ -4884,12 +4884,12 @@
         </is>
       </c>
       <c r="C342" t="n">
-        <v>2632.550856433039</v>
+        <v>2644.188726818387</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
-        <v>45811.07638888889</v>
+        <v>45811.08680555555</v>
       </c>
       <c r="B343" t="inlineStr">
         <is>
@@ -4897,12 +4897,12 @@
         </is>
       </c>
       <c r="C343" t="n">
-        <v>2636.175020031858</v>
+        <v>2644.951555329746</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
-        <v>45811.08055555556</v>
+        <v>45811.09027777778</v>
       </c>
       <c r="B344" t="inlineStr">
         <is>
@@ -4910,12 +4910,12 @@
         </is>
       </c>
       <c r="C344" t="n">
-        <v>2639.022870500949</v>
+        <v>2644.918529090417</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
-        <v>45811.08402777778</v>
+        <v>45811.09444444445</v>
       </c>
       <c r="B345" t="inlineStr">
         <is>
@@ -4923,12 +4923,12 @@
         </is>
       </c>
       <c r="C345" t="n">
-        <v>2644.188726818387</v>
+        <v>2643.333061372764</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
-        <v>45811.08680555555</v>
+        <v>45811.09791666667</v>
       </c>
       <c r="B346" t="inlineStr">
         <is>
@@ -4936,12 +4936,12 @@
         </is>
       </c>
       <c r="C346" t="n">
-        <v>2644.951555329746</v>
+        <v>2639.861153885799</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
-        <v>45811.09027777778</v>
+        <v>45811.10138888889</v>
       </c>
       <c r="B347" t="inlineStr">
         <is>
@@ -4949,12 +4949,12 @@
         </is>
       </c>
       <c r="C347" t="n">
-        <v>2644.918529090417</v>
+        <v>2640.198968089438</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
-        <v>45811.09444444445</v>
+        <v>45811.10416666666</v>
       </c>
       <c r="B348" t="inlineStr">
         <is>
@@ -4962,12 +4962,12 @@
         </is>
       </c>
       <c r="C348" t="n">
-        <v>2643.333061372764</v>
+        <v>2639.79112223357</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
-        <v>45811.09791666667</v>
+        <v>45811.10763888889</v>
       </c>
       <c r="B349" t="inlineStr">
         <is>
@@ -4975,12 +4975,12 @@
         </is>
       </c>
       <c r="C349" t="n">
-        <v>2639.861153885799</v>
+        <v>2637.25924222266</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
-        <v>45811.10138888889</v>
+        <v>45811.11111111111</v>
       </c>
       <c r="B350" t="inlineStr">
         <is>
@@ -4988,12 +4988,12 @@
         </is>
       </c>
       <c r="C350" t="n">
-        <v>2640.198968089438</v>
+        <v>2636.104024968553</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
-        <v>45811.10416666666</v>
+        <v>45811.11527777778</v>
       </c>
       <c r="B351" t="inlineStr">
         <is>
@@ -5001,12 +5001,12 @@
         </is>
       </c>
       <c r="C351" t="n">
-        <v>2639.79112223357</v>
+        <v>2634.347398144581</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
-        <v>45811.10763888889</v>
+        <v>45811.11875</v>
       </c>
       <c r="B352" t="inlineStr">
         <is>
@@ -5014,12 +5014,12 @@
         </is>
       </c>
       <c r="C352" t="n">
-        <v>2637.25924222266</v>
+        <v>2630.718895832014</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
-        <v>45811.11111111111</v>
+        <v>45811.12222222222</v>
       </c>
       <c r="B353" t="inlineStr">
         <is>
@@ -5027,12 +5027,12 @@
         </is>
       </c>
       <c r="C353" t="n">
-        <v>2636.104024968553</v>
+        <v>2628.862210900069</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
-        <v>45811.11527777778</v>
+        <v>45811.12569444445</v>
       </c>
       <c r="B354" t="inlineStr">
         <is>
@@ -5040,12 +5040,12 @@
         </is>
       </c>
       <c r="C354" t="n">
-        <v>2634.347398144581</v>
+        <v>2623.515114167879</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
-        <v>45811.11875</v>
+        <v>45811.12847222222</v>
       </c>
       <c r="B355" t="inlineStr">
         <is>
@@ -5053,12 +5053,12 @@
         </is>
       </c>
       <c r="C355" t="n">
-        <v>2630.718895832014</v>
+        <v>2620.732376167698</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
-        <v>45811.12222222222</v>
+        <v>45811.13263888889</v>
       </c>
       <c r="B356" t="inlineStr">
         <is>
@@ -5066,12 +5066,12 @@
         </is>
       </c>
       <c r="C356" t="n">
-        <v>2628.862210900069</v>
+        <v>2616.692245207762</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
-        <v>45811.12569444445</v>
+        <v>45811.13611111111</v>
       </c>
       <c r="B357" t="inlineStr">
         <is>
@@ -5079,12 +5079,12 @@
         </is>
       </c>
       <c r="C357" t="n">
-        <v>2623.515114167879</v>
+        <v>2613.263009747159</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
-        <v>45811.12847222222</v>
+        <v>45811.13958333333</v>
       </c>
       <c r="B358" t="inlineStr">
         <is>
@@ -5092,12 +5092,12 @@
         </is>
       </c>
       <c r="C358" t="n">
-        <v>2620.732376167698</v>
+        <v>2611.079296685362</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
-        <v>45811.13263888889</v>
+        <v>45811.14305555556</v>
       </c>
       <c r="B359" t="inlineStr">
         <is>
@@ -5105,12 +5105,12 @@
         </is>
       </c>
       <c r="C359" t="n">
-        <v>2616.692245207762</v>
+        <v>2607.558213567904</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
-        <v>45811.13611111111</v>
+        <v>45811.14652777778</v>
       </c>
       <c r="B360" t="inlineStr">
         <is>
@@ -5118,12 +5118,12 @@
         </is>
       </c>
       <c r="C360" t="n">
-        <v>2613.263009747159</v>
+        <v>2603.966689138996</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
-        <v>45811.13958333333</v>
+        <v>45811.14930555555</v>
       </c>
       <c r="B361" t="inlineStr">
         <is>
@@ -5131,12 +5131,12 @@
         </is>
       </c>
       <c r="C361" t="n">
-        <v>2611.079296685362</v>
+        <v>2599.728129110287</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
-        <v>45811.14305555556</v>
+        <v>45811.15347222222</v>
       </c>
       <c r="B362" t="inlineStr">
         <is>
@@ -5144,12 +5144,12 @@
         </is>
       </c>
       <c r="C362" t="n">
-        <v>2607.558213567904</v>
+        <v>2599.199756426137</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
-        <v>45811.14652777778</v>
+        <v>45811.15694444445</v>
       </c>
       <c r="B363" t="inlineStr">
         <is>
@@ -5157,12 +5157,12 @@
         </is>
       </c>
       <c r="C363" t="n">
-        <v>2603.966689138996</v>
+        <v>2599.568211883772</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
-        <v>45811.14930555555</v>
+        <v>45811.15972222222</v>
       </c>
       <c r="B364" t="inlineStr">
         <is>
@@ -5170,12 +5170,12 @@
         </is>
       </c>
       <c r="C364" t="n">
-        <v>2599.728129110287</v>
+        <v>2600.384973829856</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
-        <v>45811.15347222222</v>
+        <v>45811.16319444445</v>
       </c>
       <c r="B365" t="inlineStr">
         <is>
@@ -5183,12 +5183,12 @@
         </is>
       </c>
       <c r="C365" t="n">
-        <v>2599.199756426137</v>
+        <v>2601.706852181424</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
-        <v>45811.15694444445</v>
+        <v>45811.16736111111</v>
       </c>
       <c r="B366" t="inlineStr">
         <is>
@@ -5196,12 +5196,12 @@
         </is>
       </c>
       <c r="C366" t="n">
-        <v>2599.568211883772</v>
+        <v>2603.791416109794</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
-        <v>45811.15972222222</v>
+        <v>45811.17083333333</v>
       </c>
       <c r="B367" t="inlineStr">
         <is>
@@ -5209,12 +5209,12 @@
         </is>
       </c>
       <c r="C367" t="n">
-        <v>2600.384973829856</v>
+        <v>2603.68904115059</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="2" t="n">
-        <v>45811.16319444445</v>
+        <v>45811.17430555556</v>
       </c>
       <c r="B368" t="inlineStr">
         <is>
@@ -5222,12 +5222,12 @@
         </is>
       </c>
       <c r="C368" t="n">
-        <v>2601.706852181424</v>
+        <v>2602.109995541528</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="2" t="n">
-        <v>45811.16736111111</v>
+        <v>45811.17777777778</v>
       </c>
       <c r="B369" t="inlineStr">
         <is>
@@ -5235,12 +5235,12 @@
         </is>
       </c>
       <c r="C369" t="n">
-        <v>2603.791416109794</v>
+        <v>2601.191988896466</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="2" t="n">
-        <v>45811.17083333333</v>
+        <v>45811.18055555555</v>
       </c>
       <c r="B370" t="inlineStr">
         <is>
@@ -5248,12 +5248,12 @@
         </is>
       </c>
       <c r="C370" t="n">
-        <v>2603.68904115059</v>
+        <v>2600.705559856382</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="2" t="n">
-        <v>45811.17430555556</v>
+        <v>45811.18402777778</v>
       </c>
       <c r="B371" t="inlineStr">
         <is>
@@ -5261,12 +5261,12 @@
         </is>
       </c>
       <c r="C371" t="n">
-        <v>2602.109995541528</v>
+        <v>2600.621083132336</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="2" t="n">
-        <v>45811.17777777778</v>
+        <v>45811.18819444445</v>
       </c>
       <c r="B372" t="inlineStr">
         <is>
@@ -5274,12 +5274,12 @@
         </is>
       </c>
       <c r="C372" t="n">
-        <v>2601.191988896466</v>
+        <v>2600.935475153588</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="2" t="n">
-        <v>45811.18055555555</v>
+        <v>45811.19166666667</v>
       </c>
       <c r="B373" t="inlineStr">
         <is>
@@ -5287,12 +5287,12 @@
         </is>
       </c>
       <c r="C373" t="n">
-        <v>2600.705559856382</v>
+        <v>2598.608214985482</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="2" t="n">
-        <v>45811.18402777778</v>
+        <v>45811.19513888889</v>
       </c>
       <c r="B374" t="inlineStr">
         <is>
@@ -5300,12 +5300,12 @@
         </is>
       </c>
       <c r="C374" t="n">
-        <v>2600.621083132336</v>
+        <v>2597.811028168786</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="2" t="n">
-        <v>45811.18819444445</v>
+        <v>45811.19861111111</v>
       </c>
       <c r="B375" t="inlineStr">
         <is>
@@ -5313,12 +5313,12 @@
         </is>
       </c>
       <c r="C375" t="n">
-        <v>2600.935475153588</v>
+        <v>2597.636485565687</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="2" t="n">
-        <v>45811.19166666667</v>
+        <v>45811.20138888889</v>
       </c>
       <c r="B376" t="inlineStr">
         <is>
@@ -5326,12 +5326,12 @@
         </is>
       </c>
       <c r="C376" t="n">
-        <v>2598.608214985482</v>
+        <v>2597.080626904641</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="2" t="n">
-        <v>45811.19513888889</v>
+        <v>45811.20486111111</v>
       </c>
       <c r="B377" t="inlineStr">
         <is>
@@ -5339,12 +5339,12 @@
         </is>
       </c>
       <c r="C377" t="n">
-        <v>2597.811028168786</v>
+        <v>2596.048973156416</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="2" t="n">
-        <v>45811.19861111111</v>
+        <v>45811.2125</v>
       </c>
       <c r="B378" t="inlineStr">
         <is>
@@ -5352,12 +5352,12 @@
         </is>
       </c>
       <c r="C378" t="n">
-        <v>2597.636485565687</v>
+        <v>2595.356171486205</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="2" t="n">
-        <v>45811.20138888889</v>
+        <v>45811.21527777778</v>
       </c>
       <c r="B379" t="inlineStr">
         <is>
@@ -5365,12 +5365,12 @@
         </is>
       </c>
       <c r="C379" t="n">
-        <v>2597.080626904641</v>
+        <v>2597.854264783179</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="2" t="n">
-        <v>45811.20486111111</v>
+        <v>45811.21875</v>
       </c>
       <c r="B380" t="inlineStr">
         <is>
@@ -5378,12 +5378,12 @@
         </is>
       </c>
       <c r="C380" t="n">
-        <v>2596.048973156416</v>
+        <v>2598.952705884494</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="2" t="n">
-        <v>45811.2125</v>
+        <v>45811.22361111111</v>
       </c>
       <c r="B381" t="inlineStr">
         <is>
@@ -5391,12 +5391,12 @@
         </is>
       </c>
       <c r="C381" t="n">
-        <v>2595.356171486205</v>
+        <v>2601.377858927898</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="2" t="n">
-        <v>45811.21527777778</v>
+        <v>45811.22638888889</v>
       </c>
       <c r="B382" t="inlineStr">
         <is>
@@ -5404,12 +5404,12 @@
         </is>
       </c>
       <c r="C382" t="n">
-        <v>2597.854264783179</v>
+        <v>2601.692496086192</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="2" t="n">
-        <v>45811.21875</v>
+        <v>45811.22916666666</v>
       </c>
       <c r="B383" t="inlineStr">
         <is>
@@ -5417,12 +5417,12 @@
         </is>
       </c>
       <c r="C383" t="n">
-        <v>2598.952705884494</v>
+        <v>2601.995651471653</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="2" t="n">
-        <v>45811.22361111111</v>
+        <v>45811.23263888889</v>
       </c>
       <c r="B384" t="inlineStr">
         <is>
@@ -5430,12 +5430,12 @@
         </is>
       </c>
       <c r="C384" t="n">
-        <v>2601.377858927898</v>
+        <v>2603.254240697701</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="2" t="n">
-        <v>45811.22638888889</v>
+        <v>45811.2375</v>
       </c>
       <c r="B385" t="inlineStr">
         <is>
@@ -5443,12 +5443,12 @@
         </is>
       </c>
       <c r="C385" t="n">
-        <v>2601.692496086192</v>
+        <v>2606.129500828507</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="2" t="n">
-        <v>45811.22916666666</v>
+        <v>45811.23958333334</v>
       </c>
       <c r="B386" t="inlineStr">
         <is>
@@ -5456,12 +5456,12 @@
         </is>
       </c>
       <c r="C386" t="n">
-        <v>2601.995651471653</v>
+        <v>2606.825375228202</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="2" t="n">
-        <v>45811.23263888889</v>
+        <v>45811.24305555555</v>
       </c>
       <c r="B387" t="inlineStr">
         <is>
@@ -5469,12 +5469,12 @@
         </is>
       </c>
       <c r="C387" t="n">
-        <v>2603.254240697701</v>
+        <v>2607.473051947176</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="2" t="n">
-        <v>45811.2375</v>
+        <v>45811.24722222222</v>
       </c>
       <c r="B388" t="inlineStr">
         <is>
@@ -5482,12 +5482,12 @@
         </is>
       </c>
       <c r="C388" t="n">
-        <v>2606.129500828507</v>
+        <v>2608.337314937133</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="2" t="n">
-        <v>45811.23958333334</v>
+        <v>45811.25069444445</v>
       </c>
       <c r="B389" t="inlineStr">
         <is>
@@ -5495,12 +5495,12 @@
         </is>
       </c>
       <c r="C389" t="n">
-        <v>2606.825375228202</v>
+        <v>2610.233780056554</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="2" t="n">
-        <v>45811.24305555555</v>
+        <v>45811.25347222222</v>
       </c>
       <c r="B390" t="inlineStr">
         <is>
@@ -5508,12 +5508,12 @@
         </is>
       </c>
       <c r="C390" t="n">
-        <v>2607.473051947176</v>
+        <v>2611.543364028192</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="2" t="n">
-        <v>45811.24722222222</v>
+        <v>45811.25694444445</v>
       </c>
       <c r="B391" t="inlineStr">
         <is>
@@ -5521,12 +5521,12 @@
         </is>
       </c>
       <c r="C391" t="n">
-        <v>2608.337314937133</v>
+        <v>2611.772583144666</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="2" t="n">
-        <v>45811.25069444445</v>
+        <v>45811.26111111111</v>
       </c>
       <c r="B392" t="inlineStr">
         <is>
@@ -5534,12 +5534,12 @@
         </is>
       </c>
       <c r="C392" t="n">
-        <v>2610.233780056554</v>
+        <v>2611.848549604884</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="2" t="n">
-        <v>45811.25347222222</v>
+        <v>45811.26388888889</v>
       </c>
       <c r="B393" t="inlineStr">
         <is>
@@ -5547,12 +5547,12 @@
         </is>
       </c>
       <c r="C393" t="n">
-        <v>2611.543364028192</v>
+        <v>2611.822182239057</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="2" t="n">
-        <v>45811.25694444445</v>
+        <v>45811.26736111111</v>
       </c>
       <c r="B394" t="inlineStr">
         <is>
@@ -5560,12 +5560,12 @@
         </is>
       </c>
       <c r="C394" t="n">
-        <v>2611.772583144666</v>
+        <v>2611.350554407616</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="2" t="n">
-        <v>45811.26111111111</v>
+        <v>45811.27152777778</v>
       </c>
       <c r="B395" t="inlineStr">
         <is>
@@ -5573,12 +5573,12 @@
         </is>
       </c>
       <c r="C395" t="n">
-        <v>2611.848549604884</v>
+        <v>2610.192170738946</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="2" t="n">
-        <v>45811.26388888889</v>
+        <v>45811.27430555555</v>
       </c>
       <c r="B396" t="inlineStr">
         <is>
@@ -5586,12 +5586,12 @@
         </is>
       </c>
       <c r="C396" t="n">
-        <v>2611.822182239057</v>
+        <v>2609.430504083599</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="2" t="n">
-        <v>45811.26736111111</v>
+        <v>45811.27777777778</v>
       </c>
       <c r="B397" t="inlineStr">
         <is>
@@ -5599,12 +5599,12 @@
         </is>
       </c>
       <c r="C397" t="n">
-        <v>2611.350554407616</v>
+        <v>2609.48999712034</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="2" t="n">
-        <v>45811.27152777778</v>
+        <v>45811.28194444445</v>
       </c>
       <c r="B398" t="inlineStr">
         <is>
@@ -5612,12 +5612,12 @@
         </is>
       </c>
       <c r="C398" t="n">
-        <v>2610.192170738946</v>
+        <v>2610.179411756527</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="2" t="n">
-        <v>45811.27430555555</v>
+        <v>45811.28611111111</v>
       </c>
       <c r="B399" t="inlineStr">
         <is>
@@ -5625,12 +5625,12 @@
         </is>
       </c>
       <c r="C399" t="n">
-        <v>2609.430504083599</v>
+        <v>2612.098582684633</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="2" t="n">
-        <v>45811.27777777778</v>
+        <v>45811.28888888889</v>
       </c>
       <c r="B400" t="inlineStr">
         <is>
@@ -5638,12 +5638,12 @@
         </is>
       </c>
       <c r="C400" t="n">
-        <v>2609.48999712034</v>
+        <v>2613.127932381491</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="2" t="n">
-        <v>45811.28194444445</v>
+        <v>45811.29166666666</v>
       </c>
       <c r="B401" t="inlineStr">
         <is>
@@ -5651,12 +5651,12 @@
         </is>
       </c>
       <c r="C401" t="n">
-        <v>2610.179411756527</v>
+        <v>2614.374327960001</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="2" t="n">
-        <v>45811.28611111111</v>
+        <v>45811.29583333333</v>
       </c>
       <c r="B402" t="inlineStr">
         <is>
@@ -5664,12 +5664,12 @@
         </is>
       </c>
       <c r="C402" t="n">
-        <v>2612.098582684633</v>
+        <v>2615.812105628343</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="2" t="n">
-        <v>45811.28888888889</v>
+        <v>45811.29861111111</v>
       </c>
       <c r="B403" t="inlineStr">
         <is>
@@ -5677,12 +5677,12 @@
         </is>
       </c>
       <c r="C403" t="n">
-        <v>2613.127932381491</v>
+        <v>2617.533923242442</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="2" t="n">
-        <v>45811.29166666666</v>
+        <v>45811.30277777778</v>
       </c>
       <c r="B404" t="inlineStr">
         <is>
@@ -5690,12 +5690,12 @@
         </is>
       </c>
       <c r="C404" t="n">
-        <v>2614.374327960001</v>
+        <v>2617.513697478469</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="2" t="n">
-        <v>45811.29583333333</v>
+        <v>45811.30625</v>
       </c>
       <c r="B405" t="inlineStr">
         <is>
@@ -5703,12 +5703,12 @@
         </is>
       </c>
       <c r="C405" t="n">
-        <v>2615.812105628343</v>
+        <v>2617.250948640926</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="2" t="n">
-        <v>45811.29861111111</v>
+        <v>45811.30902777778</v>
       </c>
       <c r="B406" t="inlineStr">
         <is>
@@ -5716,12 +5716,12 @@
         </is>
       </c>
       <c r="C406" t="n">
-        <v>2617.533923242442</v>
+        <v>2615.778267574834</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="2" t="n">
-        <v>45811.30277777778</v>
+        <v>45811.31388888889</v>
       </c>
       <c r="B407" t="inlineStr">
         <is>
@@ -5729,12 +5729,12 @@
         </is>
       </c>
       <c r="C407" t="n">
-        <v>2617.513697478469</v>
+        <v>2614.414779555009</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="2" t="n">
-        <v>45811.30625</v>
+        <v>45811.31666666667</v>
       </c>
       <c r="B408" t="inlineStr">
         <is>
@@ -5742,12 +5742,12 @@
         </is>
       </c>
       <c r="C408" t="n">
-        <v>2617.250948640926</v>
+        <v>2614.410159480961</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="2" t="n">
-        <v>45811.30902777778</v>
+        <v>45811.31944444445</v>
       </c>
       <c r="B409" t="inlineStr">
         <is>
@@ -5755,12 +5755,12 @@
         </is>
       </c>
       <c r="C409" t="n">
-        <v>2615.778267574834</v>
+        <v>2614.696322571602</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="2" t="n">
-        <v>45811.31388888889</v>
+        <v>45811.32291666666</v>
       </c>
       <c r="B410" t="inlineStr">
         <is>
@@ -5768,12 +5768,12 @@
         </is>
       </c>
       <c r="C410" t="n">
-        <v>2614.414779555009</v>
+        <v>2614.675101392805</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="2" t="n">
-        <v>45811.31666666667</v>
+        <v>45811.32708333333</v>
       </c>
       <c r="B411" t="inlineStr">
         <is>
@@ -5781,12 +5781,12 @@
         </is>
       </c>
       <c r="C411" t="n">
-        <v>2614.410159480961</v>
+        <v>2614.346865966705</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="2" t="n">
-        <v>45811.31944444445</v>
+        <v>45811.33055555556</v>
       </c>
       <c r="B412" t="inlineStr">
         <is>
@@ -5794,12 +5794,12 @@
         </is>
       </c>
       <c r="C412" t="n">
-        <v>2614.696322571602</v>
+        <v>2613.545360088247</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="2" t="n">
-        <v>45811.32291666666</v>
+        <v>45811.33402777778</v>
       </c>
       <c r="B413" t="inlineStr">
         <is>
@@ -5807,12 +5807,12 @@
         </is>
       </c>
       <c r="C413" t="n">
-        <v>2614.675101392805</v>
+        <v>2612.511226358488</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="2" t="n">
-        <v>45811.32708333333</v>
+        <v>45811.33680555555</v>
       </c>
       <c r="B414" t="inlineStr">
         <is>
@@ -5820,12 +5820,12 @@
         </is>
       </c>
       <c r="C414" t="n">
-        <v>2614.346865966705</v>
+        <v>2612.161488481399</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="2" t="n">
-        <v>45811.33055555556</v>
+        <v>45811.34027777778</v>
       </c>
       <c r="B415" t="inlineStr">
         <is>
@@ -5833,12 +5833,12 @@
         </is>
       </c>
       <c r="C415" t="n">
-        <v>2613.545360088247</v>
+        <v>2610.987200999411</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="2" t="n">
-        <v>45811.33402777778</v>
+        <v>45811.34375</v>
       </c>
       <c r="B416" t="inlineStr">
         <is>
@@ -5846,12 +5846,12 @@
         </is>
       </c>
       <c r="C416" t="n">
-        <v>2612.511226358488</v>
+        <v>2608.76027077903</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="2" t="n">
-        <v>45811.33680555555</v>
+        <v>45811.34791666667</v>
       </c>
       <c r="B417" t="inlineStr">
         <is>
@@ -5859,12 +5859,12 @@
         </is>
       </c>
       <c r="C417" t="n">
-        <v>2612.161488481399</v>
+        <v>2606.241781250478</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="2" t="n">
-        <v>45811.34027777778</v>
+        <v>45811.35138888889</v>
       </c>
       <c r="B418" t="inlineStr">
         <is>
@@ -5872,12 +5872,12 @@
         </is>
       </c>
       <c r="C418" t="n">
-        <v>2610.987200999411</v>
+        <v>2606.368942717565</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="2" t="n">
-        <v>45811.34375</v>
+        <v>45811.35416666666</v>
       </c>
       <c r="B419" t="inlineStr">
         <is>
@@ -5885,12 +5885,12 @@
         </is>
       </c>
       <c r="C419" t="n">
-        <v>2608.76027077903</v>
+        <v>2606.17179889686</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="2" t="n">
-        <v>45811.34791666667</v>
+        <v>45811.35763888889</v>
       </c>
       <c r="B420" t="inlineStr">
         <is>
@@ -5898,12 +5898,12 @@
         </is>
       </c>
       <c r="C420" t="n">
-        <v>2606.241781250478</v>
+        <v>2606.046689053407</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="2" t="n">
-        <v>45811.35138888889</v>
+        <v>45811.36111111111</v>
       </c>
       <c r="B421" t="inlineStr">
         <is>
@@ -5911,12 +5911,12 @@
         </is>
       </c>
       <c r="C421" t="n">
-        <v>2606.368942717565</v>
+        <v>2605.378120448735</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="2" t="n">
-        <v>45811.35416666666</v>
+        <v>45811.36527777778</v>
       </c>
       <c r="B422" t="inlineStr">
         <is>
@@ -5924,12 +5924,12 @@
         </is>
       </c>
       <c r="C422" t="n">
-        <v>2606.17179889686</v>
+        <v>2604.291520101972</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="2" t="n">
-        <v>45811.35763888889</v>
+        <v>45811.36875</v>
       </c>
       <c r="B423" t="inlineStr">
         <is>
@@ -5937,12 +5937,12 @@
         </is>
       </c>
       <c r="C423" t="n">
-        <v>2606.046689053407</v>
+        <v>2604.491276513133</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="2" t="n">
-        <v>45811.36111111111</v>
+        <v>45811.37152777778</v>
       </c>
       <c r="B424" t="inlineStr">
         <is>
@@ -5950,12 +5950,12 @@
         </is>
       </c>
       <c r="C424" t="n">
-        <v>2605.378120448735</v>
+        <v>2605.149936650279</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="2" t="n">
-        <v>45811.36527777778</v>
+        <v>45811.37569444445</v>
       </c>
       <c r="B425" t="inlineStr">
         <is>
@@ -5963,12 +5963,12 @@
         </is>
       </c>
       <c r="C425" t="n">
-        <v>2604.291520101972</v>
+        <v>2606.367793816077</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="2" t="n">
-        <v>45811.36875</v>
+        <v>45811.37916666667</v>
       </c>
       <c r="B426" t="inlineStr">
         <is>
@@ -5976,12 +5976,12 @@
         </is>
       </c>
       <c r="C426" t="n">
-        <v>2604.491276513133</v>
+        <v>2606.952713300389</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="2" t="n">
-        <v>45811.37152777778</v>
+        <v>45811.38263888889</v>
       </c>
       <c r="B427" t="inlineStr">
         <is>
@@ -5989,12 +5989,12 @@
         </is>
       </c>
       <c r="C427" t="n">
-        <v>2605.149936650279</v>
+        <v>2607.122280548197</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="2" t="n">
-        <v>45811.37569444445</v>
+        <v>45811.38541666666</v>
       </c>
       <c r="B428" t="inlineStr">
         <is>
@@ -6002,12 +6002,12 @@
         </is>
       </c>
       <c r="C428" t="n">
-        <v>2606.367793816077</v>
+        <v>2606.752296906451</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="2" t="n">
-        <v>45811.37916666667</v>
+        <v>45811.38958333333</v>
       </c>
       <c r="B429" t="inlineStr">
         <is>
@@ -6015,12 +6015,12 @@
         </is>
       </c>
       <c r="C429" t="n">
-        <v>2606.952713300389</v>
+        <v>2606.948914882164</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="2" t="n">
-        <v>45811.38263888889</v>
+        <v>45811.39305555556</v>
       </c>
       <c r="B430" t="inlineStr">
         <is>
@@ -6028,12 +6028,12 @@
         </is>
       </c>
       <c r="C430" t="n">
-        <v>2607.122280548197</v>
+        <v>2606.473117793458</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="2" t="n">
-        <v>45811.38541666666</v>
+        <v>45811.39583333334</v>
       </c>
       <c r="B431" t="inlineStr">
         <is>
@@ -6041,12 +6041,12 @@
         </is>
       </c>
       <c r="C431" t="n">
-        <v>2606.752296906451</v>
+        <v>2606.089079968084</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="2" t="n">
-        <v>45811.38958333333</v>
+        <v>45811.39930555555</v>
       </c>
       <c r="B432" t="inlineStr">
         <is>
@@ -6054,12 +6054,12 @@
         </is>
       </c>
       <c r="C432" t="n">
-        <v>2606.948914882164</v>
+        <v>2605.436947923266</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="2" t="n">
-        <v>45811.39305555556</v>
+        <v>45811.40277777778</v>
       </c>
       <c r="B433" t="inlineStr">
         <is>
@@ -6067,12 +6067,12 @@
         </is>
       </c>
       <c r="C433" t="n">
-        <v>2606.473117793458</v>
+        <v>2606.962537750831</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="2" t="n">
-        <v>45811.39583333334</v>
+        <v>45811.40694444445</v>
       </c>
       <c r="B434" t="inlineStr">
         <is>
@@ -6080,12 +6080,12 @@
         </is>
       </c>
       <c r="C434" t="n">
-        <v>2606.089079968084</v>
+        <v>2609.124786788605</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="2" t="n">
-        <v>45811.39930555555</v>
+        <v>45811.41041666667</v>
       </c>
       <c r="B435" t="inlineStr">
         <is>
@@ -6093,12 +6093,12 @@
         </is>
       </c>
       <c r="C435" t="n">
-        <v>2605.436947923266</v>
+        <v>2610.42615167452</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="2" t="n">
-        <v>45811.40277777778</v>
+        <v>45811.41388888889</v>
       </c>
       <c r="B436" t="inlineStr">
         <is>
@@ -6106,12 +6106,12 @@
         </is>
       </c>
       <c r="C436" t="n">
-        <v>2606.962537750831</v>
+        <v>2612.305824393786</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="2" t="n">
-        <v>45811.40694444445</v>
+        <v>45811.41666666666</v>
       </c>
       <c r="B437" t="inlineStr">
         <is>
@@ -6119,12 +6119,12 @@
         </is>
       </c>
       <c r="C437" t="n">
-        <v>2609.124786788605</v>
+        <v>2613.984452672469</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="2" t="n">
-        <v>45811.41041666667</v>
+        <v>45811.42083333333</v>
       </c>
       <c r="B438" t="inlineStr">
         <is>
@@ -6132,12 +6132,12 @@
         </is>
       </c>
       <c r="C438" t="n">
-        <v>2610.42615167452</v>
+        <v>2615.244340887456</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="2" t="n">
-        <v>45811.41388888889</v>
+        <v>45811.42430555556</v>
       </c>
       <c r="B439" t="inlineStr">
         <is>
@@ -6145,12 +6145,12 @@
         </is>
       </c>
       <c r="C439" t="n">
-        <v>2612.305824393786</v>
+        <v>2615.657301804206</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="2" t="n">
-        <v>45811.41666666666</v>
+        <v>45811.42777777778</v>
       </c>
       <c r="B440" t="inlineStr">
         <is>
@@ -6158,12 +6158,12 @@
         </is>
       </c>
       <c r="C440" t="n">
-        <v>2613.984452672469</v>
+        <v>2616.036834287509</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="2" t="n">
-        <v>45811.42083333333</v>
+        <v>45811.43055555555</v>
       </c>
       <c r="B441" t="inlineStr">
         <is>
@@ -6171,12 +6171,12 @@
         </is>
       </c>
       <c r="C441" t="n">
-        <v>2615.244340887456</v>
+        <v>2616.673023895794</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="2" t="n">
-        <v>45811.42430555556</v>
+        <v>45811.43402777778</v>
       </c>
       <c r="B442" t="inlineStr">
         <is>
@@ -6184,12 +6184,12 @@
         </is>
       </c>
       <c r="C442" t="n">
-        <v>2615.657301804206</v>
+        <v>2616.641615696987</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="2" t="n">
-        <v>45811.42777777778</v>
+        <v>45811.43819444445</v>
       </c>
       <c r="B443" t="inlineStr">
         <is>
@@ -6197,12 +6197,12 @@
         </is>
       </c>
       <c r="C443" t="n">
-        <v>2616.036834287509</v>
+        <v>2617.095961669925</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="2" t="n">
-        <v>45811.43055555555</v>
+        <v>45811.44166666667</v>
       </c>
       <c r="B444" t="inlineStr">
         <is>
@@ -6210,12 +6210,12 @@
         </is>
       </c>
       <c r="C444" t="n">
-        <v>2616.673023895794</v>
+        <v>2617.623454033012</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="2" t="n">
-        <v>45811.43402777778</v>
+        <v>45811.44444444445</v>
       </c>
       <c r="B445" t="inlineStr">
         <is>
@@ -6223,12 +6223,12 @@
         </is>
       </c>
       <c r="C445" t="n">
-        <v>2616.641615696987</v>
+        <v>2617.696949697835</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="2" t="n">
-        <v>45811.43819444445</v>
+        <v>45811.44791666666</v>
       </c>
       <c r="B446" t="inlineStr">
         <is>
@@ -6236,12 +6236,12 @@
         </is>
       </c>
       <c r="C446" t="n">
-        <v>2617.095961669925</v>
+        <v>2617.056962611298</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="2" t="n">
-        <v>45811.44166666667</v>
+        <v>45811.45138888889</v>
       </c>
       <c r="B447" t="inlineStr">
         <is>
@@ -6249,12 +6249,12 @@
         </is>
       </c>
       <c r="C447" t="n">
-        <v>2617.623454033012</v>
+        <v>2616.550250142862</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="2" t="n">
-        <v>45811.44444444445</v>
+        <v>45811.45555555556</v>
       </c>
       <c r="B448" t="inlineStr">
         <is>
@@ -6262,12 +6262,12 @@
         </is>
       </c>
       <c r="C448" t="n">
-        <v>2617.696949697835</v>
+        <v>2615.181696973625</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="2" t="n">
-        <v>45811.44791666666</v>
+        <v>45811.45902777778</v>
       </c>
       <c r="B449" t="inlineStr">
         <is>
@@ -6275,12 +6275,12 @@
         </is>
       </c>
       <c r="C449" t="n">
-        <v>2617.056962611298</v>
+        <v>2614.024093735365</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="2" t="n">
-        <v>45811.45138888889</v>
+        <v>45811.46180555555</v>
       </c>
       <c r="B450" t="inlineStr">
         <is>
@@ -6288,12 +6288,12 @@
         </is>
       </c>
       <c r="C450" t="n">
-        <v>2616.550250142862</v>
+        <v>2614.005890539991</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="2" t="n">
-        <v>45811.45555555556</v>
+        <v>45811.46597222222</v>
       </c>
       <c r="B451" t="inlineStr">
         <is>
@@ -6301,12 +6301,12 @@
         </is>
       </c>
       <c r="C451" t="n">
-        <v>2615.181696973625</v>
+        <v>2614.976086769132</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="2" t="n">
-        <v>45811.45902777778</v>
+        <v>45811.46875</v>
       </c>
       <c r="B452" t="inlineStr">
         <is>
@@ -6314,12 +6314,12 @@
         </is>
       </c>
       <c r="C452" t="n">
-        <v>2614.024093735365</v>
+        <v>2614.433226759024</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="2" t="n">
-        <v>45811.46180555555</v>
+        <v>45811.47222222222</v>
       </c>
       <c r="B453" t="inlineStr">
         <is>
@@ -6327,12 +6327,12 @@
         </is>
       </c>
       <c r="C453" t="n">
-        <v>2614.005890539991</v>
+        <v>2614.318234633024</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="2" t="n">
-        <v>45811.46597222222</v>
+        <v>45811.47638888889</v>
       </c>
       <c r="B454" t="inlineStr">
         <is>
@@ -6340,12 +6340,12 @@
         </is>
       </c>
       <c r="C454" t="n">
-        <v>2614.976086769132</v>
+        <v>2613.283223120647</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="2" t="n">
-        <v>45811.46875</v>
+        <v>45811.47986111111</v>
       </c>
       <c r="B455" t="inlineStr">
         <is>
@@ -6353,12 +6353,12 @@
         </is>
       </c>
       <c r="C455" t="n">
-        <v>2614.433226759024</v>
+        <v>2611.901115539258</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="2" t="n">
-        <v>45811.47222222222</v>
+        <v>45811.48263888889</v>
       </c>
       <c r="B456" t="inlineStr">
         <is>
@@ -6366,12 +6366,12 @@
         </is>
       </c>
       <c r="C456" t="n">
-        <v>2614.318234633024</v>
+        <v>2611.592468572498</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="2" t="n">
-        <v>45811.47638888889</v>
+        <v>45811.48611111111</v>
       </c>
       <c r="B457" t="inlineStr">
         <is>
@@ -6379,12 +6379,12 @@
         </is>
       </c>
       <c r="C457" t="n">
-        <v>2613.283223120647</v>
+        <v>2610.934619963773</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="2" t="n">
-        <v>45811.47986111111</v>
+        <v>45811.49027777778</v>
       </c>
       <c r="B458" t="inlineStr">
         <is>
@@ -6392,12 +6392,12 @@
         </is>
       </c>
       <c r="C458" t="n">
-        <v>2611.901115539258</v>
+        <v>2610.416848899597</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="2" t="n">
-        <v>45811.48263888889</v>
+        <v>45811.49375</v>
       </c>
       <c r="B459" t="inlineStr">
         <is>
@@ -6405,12 +6405,12 @@
         </is>
       </c>
       <c r="C459" t="n">
-        <v>2611.592468572498</v>
+        <v>2608.810579227369</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="2" t="n">
-        <v>45811.48611111111</v>
+        <v>45811.49652777778</v>
       </c>
       <c r="B460" t="inlineStr">
         <is>
@@ -6418,12 +6418,12 @@
         </is>
       </c>
       <c r="C460" t="n">
-        <v>2610.934619963773</v>
+        <v>2608.286963210327</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="2" t="n">
-        <v>45811.49027777778</v>
+        <v>45811.5</v>
       </c>
       <c r="B461" t="inlineStr">
         <is>
@@ -6431,12 +6431,12 @@
         </is>
       </c>
       <c r="C461" t="n">
-        <v>2610.416848899597</v>
+        <v>2606.736400761517</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="2" t="n">
-        <v>45811.49375</v>
+        <v>45811.50347222222</v>
       </c>
       <c r="B462" t="inlineStr">
         <is>
@@ -6444,12 +6444,12 @@
         </is>
       </c>
       <c r="C462" t="n">
-        <v>2608.810579227369</v>
+        <v>2605.429627211018</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="2" t="n">
-        <v>45811.49652777778</v>
+        <v>45811.50763888889</v>
       </c>
       <c r="B463" t="inlineStr">
         <is>
@@ -6457,12 +6457,12 @@
         </is>
       </c>
       <c r="C463" t="n">
-        <v>2608.286963210327</v>
+        <v>2604.891578778151</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="2" t="n">
-        <v>45811.5</v>
+        <v>45811.51111111111</v>
       </c>
       <c r="B464" t="inlineStr">
         <is>
@@ -6470,12 +6470,12 @@
         </is>
       </c>
       <c r="C464" t="n">
-        <v>2606.736400761517</v>
+        <v>2605.708102067607</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="2" t="n">
-        <v>45811.50347222222</v>
+        <v>45811.51388888889</v>
       </c>
       <c r="B465" t="inlineStr">
         <is>
@@ -6483,12 +6483,12 @@
         </is>
       </c>
       <c r="C465" t="n">
-        <v>2605.429627211018</v>
+        <v>2606.218938666897</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="2" t="n">
-        <v>45811.50763888889</v>
+        <v>45811.51805555556</v>
       </c>
       <c r="B466" t="inlineStr">
         <is>
@@ -6496,12 +6496,12 @@
         </is>
       </c>
       <c r="C466" t="n">
-        <v>2604.891578778151</v>
+        <v>2606.400579302916</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="2" t="n">
-        <v>45811.51111111111</v>
+        <v>45811.52083333334</v>
       </c>
       <c r="B467" t="inlineStr">
         <is>
@@ -6509,12 +6509,12 @@
         </is>
       </c>
       <c r="C467" t="n">
-        <v>2605.708102067607</v>
+        <v>2607.574031296796</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="2" t="n">
-        <v>45811.51388888889</v>
+        <v>45811.525</v>
       </c>
       <c r="B468" t="inlineStr">
         <is>
@@ -6522,12 +6522,12 @@
         </is>
       </c>
       <c r="C468" t="n">
-        <v>2606.218938666897</v>
+        <v>2608.333286543545</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="2" t="n">
-        <v>45811.51805555556</v>
+        <v>45811.52777777778</v>
       </c>
       <c r="B469" t="inlineStr">
         <is>
@@ -6535,12 +6535,12 @@
         </is>
       </c>
       <c r="C469" t="n">
-        <v>2606.400579302916</v>
+        <v>2607.805772878832</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="2" t="n">
-        <v>45811.52083333334</v>
+        <v>45811.53194444445</v>
       </c>
       <c r="B470" t="inlineStr">
         <is>
@@ -6548,12 +6548,12 @@
         </is>
       </c>
       <c r="C470" t="n">
-        <v>2607.574031296796</v>
+        <v>2609.007373631797</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="2" t="n">
-        <v>45811.525</v>
+        <v>45811.53611111111</v>
       </c>
       <c r="B471" t="inlineStr">
         <is>
@@ -6561,12 +6561,12 @@
         </is>
       </c>
       <c r="C471" t="n">
-        <v>2608.333286543545</v>
+        <v>2609.752205575772</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="2" t="n">
-        <v>45811.52777777778</v>
+        <v>45811.53819444445</v>
       </c>
       <c r="B472" t="inlineStr">
         <is>
@@ -6574,12 +6574,12 @@
         </is>
       </c>
       <c r="C472" t="n">
-        <v>2607.805772878832</v>
+        <v>2609.981314412162</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="2" t="n">
-        <v>45811.53194444445</v>
+        <v>45811.54166666666</v>
       </c>
       <c r="B473" t="inlineStr">
         <is>
@@ -6587,12 +6587,12 @@
         </is>
       </c>
       <c r="C473" t="n">
-        <v>2609.007373631797</v>
+        <v>2610.748047341699</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="2" t="n">
-        <v>45811.53611111111</v>
+        <v>45811.54583333333</v>
       </c>
       <c r="B474" t="inlineStr">
         <is>
@@ -6600,12 +6600,12 @@
         </is>
       </c>
       <c r="C474" t="n">
-        <v>2609.752205575772</v>
+        <v>2612.447383773573</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="2" t="n">
-        <v>45811.53819444445</v>
+        <v>45811.54930555556</v>
       </c>
       <c r="B475" t="inlineStr">
         <is>
@@ -6613,12 +6613,12 @@
         </is>
       </c>
       <c r="C475" t="n">
-        <v>2609.981314412162</v>
+        <v>2613.206093988092</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="2" t="n">
-        <v>45811.54166666666</v>
+        <v>45811.55277777778</v>
       </c>
       <c r="B476" t="inlineStr">
         <is>
@@ -6626,12 +6626,12 @@
         </is>
       </c>
       <c r="C476" t="n">
-        <v>2610.748047341699</v>
+        <v>2613.899226054402</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="2" t="n">
-        <v>45811.54583333333</v>
+        <v>45811.55555555555</v>
       </c>
       <c r="B477" t="inlineStr">
         <is>
@@ -6639,12 +6639,12 @@
         </is>
       </c>
       <c r="C477" t="n">
-        <v>2612.447383773573</v>
+        <v>2615.309103184865</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="2" t="n">
-        <v>45811.54930555556</v>
+        <v>45811.55902777778</v>
       </c>
       <c r="B478" t="inlineStr">
         <is>
@@ -6652,12 +6652,12 @@
         </is>
       </c>
       <c r="C478" t="n">
-        <v>2613.206093988092</v>
+        <v>2620.073772650654</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="2" t="n">
-        <v>45811.55277777778</v>
+        <v>45811.56319444445</v>
       </c>
       <c r="B479" t="inlineStr">
         <is>
@@ -6665,12 +6665,12 @@
         </is>
       </c>
       <c r="C479" t="n">
-        <v>2613.899226054402</v>
+        <v>2621.590025974812</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="2" t="n">
-        <v>45811.55555555555</v>
+        <v>45811.56597222222</v>
       </c>
       <c r="B480" t="inlineStr">
         <is>
@@ -6678,12 +6678,12 @@
         </is>
       </c>
       <c r="C480" t="n">
-        <v>2615.309103184865</v>
+        <v>2619.791920204941</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="2" t="n">
-        <v>45811.55902777778</v>
+        <v>45811.57013888889</v>
       </c>
       <c r="B481" t="inlineStr">
         <is>
@@ -6691,12 +6691,12 @@
         </is>
       </c>
       <c r="C481" t="n">
-        <v>2620.073772650654</v>
+        <v>2618.769577126351</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="2" t="n">
-        <v>45811.56319444445</v>
+        <v>45811.57361111111</v>
       </c>
       <c r="B482" t="inlineStr">
         <is>
@@ -6704,12 +6704,12 @@
         </is>
       </c>
       <c r="C482" t="n">
-        <v>2621.590025974812</v>
+        <v>2620.532921530582</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="2" t="n">
-        <v>45811.56597222222</v>
+        <v>45811.57708333333</v>
       </c>
       <c r="B483" t="inlineStr">
         <is>
@@ -6717,12 +6717,12 @@
         </is>
       </c>
       <c r="C483" t="n">
-        <v>2619.791920204941</v>
+        <v>2621.135930118774</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="2" t="n">
-        <v>45811.57013888889</v>
+        <v>45811.58055555556</v>
       </c>
       <c r="B484" t="inlineStr">
         <is>
@@ -6730,12 +6730,12 @@
         </is>
       </c>
       <c r="C484" t="n">
-        <v>2618.769577126351</v>
+        <v>2621.444346166556</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="2" t="n">
-        <v>45811.57361111111</v>
+        <v>45811.58472222222</v>
       </c>
       <c r="B485" t="inlineStr">
         <is>
@@ -6743,12 +6743,12 @@
         </is>
       </c>
       <c r="C485" t="n">
-        <v>2620.532921530582</v>
+        <v>2625.3271882589</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="2" t="n">
-        <v>45811.57708333333</v>
+        <v>45811.5875</v>
       </c>
       <c r="B486" t="inlineStr">
         <is>
@@ -6756,12 +6756,12 @@
         </is>
       </c>
       <c r="C486" t="n">
-        <v>2621.135930118774</v>
+        <v>2626.344288586956</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="2" t="n">
-        <v>45811.58055555556</v>
+        <v>45811.59166666667</v>
       </c>
       <c r="B487" t="inlineStr">
         <is>
@@ -6769,12 +6769,12 @@
         </is>
       </c>
       <c r="C487" t="n">
-        <v>2621.444346166556</v>
+        <v>2624.134266014604</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="2" t="n">
-        <v>45811.58472222222</v>
+        <v>45811.59444444445</v>
       </c>
       <c r="B488" t="inlineStr">
         <is>
@@ -6782,12 +6782,12 @@
         </is>
       </c>
       <c r="C488" t="n">
-        <v>2625.3271882589</v>
+        <v>2623.072422426044</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="2" t="n">
-        <v>45811.5875</v>
+        <v>45811.59722222222</v>
       </c>
       <c r="B489" t="inlineStr">
         <is>
@@ -6795,12 +6795,12 @@
         </is>
       </c>
       <c r="C489" t="n">
-        <v>2626.344288586956</v>
+        <v>2623.687819523585</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="2" t="n">
-        <v>45811.59166666667</v>
+        <v>45811.60138888889</v>
       </c>
       <c r="B490" t="inlineStr">
         <is>
@@ -6808,12 +6808,12 @@
         </is>
       </c>
       <c r="C490" t="n">
-        <v>2624.134266014604</v>
+        <v>2627.650153434988</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="2" t="n">
-        <v>45811.59444444445</v>
+        <v>45811.60486111111</v>
       </c>
       <c r="B491" t="inlineStr">
         <is>
@@ -6821,12 +6821,12 @@
         </is>
       </c>
       <c r="C491" t="n">
-        <v>2623.072422426044</v>
+        <v>2628.797228307495</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="2" t="n">
-        <v>45811.59722222222</v>
+        <v>45811.60763888889</v>
       </c>
       <c r="B492" t="inlineStr">
         <is>
@@ -6834,12 +6834,12 @@
         </is>
       </c>
       <c r="C492" t="n">
-        <v>2623.687819523585</v>
+        <v>2629.1654896416</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="2" t="n">
-        <v>45811.60138888889</v>
+        <v>45811.61180555556</v>
       </c>
       <c r="B493" t="inlineStr">
         <is>
@@ -6847,12 +6847,12 @@
         </is>
       </c>
       <c r="C493" t="n">
-        <v>2627.650153434988</v>
+        <v>2630.27492195828</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="2" t="n">
-        <v>45811.60486111111</v>
+        <v>45811.61527777778</v>
       </c>
       <c r="B494" t="inlineStr">
         <is>
@@ -6860,12 +6860,12 @@
         </is>
       </c>
       <c r="C494" t="n">
-        <v>2628.797228307495</v>
+        <v>2632.799303739108</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="2" t="n">
-        <v>45811.60763888889</v>
+        <v>45811.61805555555</v>
       </c>
       <c r="B495" t="inlineStr">
         <is>
@@ -6873,12 +6873,12 @@
         </is>
       </c>
       <c r="C495" t="n">
-        <v>2629.1654896416</v>
+        <v>2633.489055931916</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="2" t="n">
-        <v>45811.61180555556</v>
+        <v>45811.62222222222</v>
       </c>
       <c r="B496" t="inlineStr">
         <is>
@@ -6886,12 +6886,12 @@
         </is>
       </c>
       <c r="C496" t="n">
-        <v>2630.27492195828</v>
+        <v>2636.852963122219</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="2" t="n">
-        <v>45811.61527777778</v>
+        <v>45811.62986111111</v>
       </c>
       <c r="B497" t="inlineStr">
         <is>
@@ -6899,12 +6899,12 @@
         </is>
       </c>
       <c r="C497" t="n">
-        <v>2632.799303739108</v>
+        <v>2642.285552958807</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="2" t="n">
-        <v>45811.61805555555</v>
+        <v>45811.63194444445</v>
       </c>
       <c r="B498" t="inlineStr">
         <is>
@@ -6912,12 +6912,12 @@
         </is>
       </c>
       <c r="C498" t="n">
-        <v>2633.489055931916</v>
+        <v>2643.341592847356</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="2" t="n">
-        <v>45811.62222222222</v>
+        <v>45811.63611111111</v>
       </c>
       <c r="B499" t="inlineStr">
         <is>
@@ -6925,12 +6925,12 @@
         </is>
       </c>
       <c r="C499" t="n">
-        <v>2636.852963122219</v>
+        <v>2642.237805816182</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="2" t="n">
-        <v>45811.62986111111</v>
+        <v>45811.63958333333</v>
       </c>
       <c r="B500" t="inlineStr">
         <is>
@@ -6938,12 +6938,12 @@
         </is>
       </c>
       <c r="C500" t="n">
-        <v>2642.285552958807</v>
+        <v>2642.092503906129</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="2" t="n">
-        <v>45811.63194444445</v>
+        <v>45811.64305555556</v>
       </c>
       <c r="B501" t="inlineStr">
         <is>
@@ -6951,12 +6951,12 @@
         </is>
       </c>
       <c r="C501" t="n">
-        <v>2643.341592847356</v>
+        <v>2643.127977861431</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" s="2" t="n">
-        <v>45811.63611111111</v>
+        <v>45811.64583333334</v>
       </c>
       <c r="B502" t="inlineStr">
         <is>
@@ -6964,12 +6964,12 @@
         </is>
       </c>
       <c r="C502" t="n">
-        <v>2642.237805816182</v>
+        <v>2643.665504843432</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" s="2" t="n">
-        <v>45811.63958333333</v>
+        <v>45811.64930555555</v>
       </c>
       <c r="B503" t="inlineStr">
         <is>
@@ -6977,12 +6977,12 @@
         </is>
       </c>
       <c r="C503" t="n">
-        <v>2642.092503906129</v>
+        <v>2640.275045485467</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" s="2" t="n">
-        <v>45811.64305555556</v>
+        <v>45811.65416666667</v>
       </c>
       <c r="B504" t="inlineStr">
         <is>
@@ -6990,12 +6990,12 @@
         </is>
       </c>
       <c r="C504" t="n">
-        <v>2643.127977861431</v>
+        <v>2637.79050478334</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" s="2" t="n">
-        <v>45811.64583333334</v>
+        <v>45811.65625</v>
       </c>
       <c r="B505" t="inlineStr">
         <is>
@@ -7003,12 +7003,12 @@
         </is>
       </c>
       <c r="C505" t="n">
-        <v>2643.665504843432</v>
+        <v>2637.959694884006</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="2" t="n">
-        <v>45811.64930555555</v>
+        <v>45811.65972222222</v>
       </c>
       <c r="B506" t="inlineStr">
         <is>
@@ -7016,12 +7016,12 @@
         </is>
       </c>
       <c r="C506" t="n">
-        <v>2640.275045485467</v>
+        <v>2635.686000750662</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="2" t="n">
-        <v>45811.65416666667</v>
+        <v>45811.66388888889</v>
       </c>
       <c r="B507" t="inlineStr">
         <is>
@@ -7029,12 +7029,12 @@
         </is>
       </c>
       <c r="C507" t="n">
-        <v>2637.79050478334</v>
+        <v>2633.52110122006</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="2" t="n">
-        <v>45811.65625</v>
+        <v>45811.66736111111</v>
       </c>
       <c r="B508" t="inlineStr">
         <is>
@@ -7042,12 +7042,12 @@
         </is>
       </c>
       <c r="C508" t="n">
-        <v>2637.959694884006</v>
+        <v>2630.274589123833</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="2" t="n">
-        <v>45811.65972222222</v>
+        <v>45811.67013888889</v>
       </c>
       <c r="B509" t="inlineStr">
         <is>
@@ -7055,12 +7055,12 @@
         </is>
       </c>
       <c r="C509" t="n">
-        <v>2635.686000750662</v>
+        <v>2628.790148016984</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="2" t="n">
-        <v>45811.66388888889</v>
+        <v>45811.67361111111</v>
       </c>
       <c r="B510" t="inlineStr">
         <is>
@@ -7068,12 +7068,12 @@
         </is>
       </c>
       <c r="C510" t="n">
-        <v>2633.52110122006</v>
+        <v>2625.526096306497</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="2" t="n">
-        <v>45811.66736111111</v>
+        <v>45811.67777777778</v>
       </c>
       <c r="B511" t="inlineStr">
         <is>
@@ -7081,12 +7081,12 @@
         </is>
       </c>
       <c r="C511" t="n">
-        <v>2630.274589123833</v>
+        <v>2623.305393623845</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="2" t="n">
-        <v>45811.67013888889</v>
+        <v>45811.68125</v>
       </c>
       <c r="B512" t="inlineStr">
         <is>
@@ -7094,12 +7094,12 @@
         </is>
       </c>
       <c r="C512" t="n">
-        <v>2628.790148016984</v>
+        <v>2621.511794005767</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="2" t="n">
-        <v>45811.67361111111</v>
+        <v>45811.68402777778</v>
       </c>
       <c r="B513" t="inlineStr">
         <is>
@@ -7107,12 +7107,12 @@
         </is>
       </c>
       <c r="C513" t="n">
-        <v>2625.526096306497</v>
+        <v>2620.613195565785</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="2" t="n">
-        <v>45811.67777777778</v>
+        <v>45811.6875</v>
       </c>
       <c r="B514" t="inlineStr">
         <is>
@@ -7120,12 +7120,12 @@
         </is>
       </c>
       <c r="C514" t="n">
-        <v>2623.305393623845</v>
+        <v>2620.165777397669</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="2" t="n">
-        <v>45811.68125</v>
+        <v>45811.69166666667</v>
       </c>
       <c r="B515" t="inlineStr">
         <is>
@@ -7133,12 +7133,12 @@
         </is>
       </c>
       <c r="C515" t="n">
-        <v>2621.511794005767</v>
+        <v>2618.765038419691</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="2" t="n">
-        <v>45811.68402777778</v>
+        <v>45811.69444444445</v>
       </c>
       <c r="B516" t="inlineStr">
         <is>
@@ -7146,12 +7146,12 @@
         </is>
       </c>
       <c r="C516" t="n">
-        <v>2620.613195565785</v>
+        <v>2617.974501379645</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="2" t="n">
-        <v>45811.6875</v>
+        <v>45811.69861111111</v>
       </c>
       <c r="B517" t="inlineStr">
         <is>
@@ -7159,12 +7159,12 @@
         </is>
       </c>
       <c r="C517" t="n">
-        <v>2620.165777397669</v>
+        <v>2618.194109729147</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="2" t="n">
-        <v>45811.69166666667</v>
+        <v>45811.70138888889</v>
       </c>
       <c r="B518" t="inlineStr">
         <is>
@@ -7172,12 +7172,12 @@
         </is>
       </c>
       <c r="C518" t="n">
-        <v>2618.765038419691</v>
+        <v>2616.203429208542</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="2" t="n">
-        <v>45811.69444444445</v>
+        <v>45811.70486111111</v>
       </c>
       <c r="B519" t="inlineStr">
         <is>
@@ -7185,12 +7185,12 @@
         </is>
       </c>
       <c r="C519" t="n">
-        <v>2617.974501379645</v>
+        <v>2615.232523394602</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="2" t="n">
-        <v>45811.69861111111</v>
+        <v>45811.70902777778</v>
       </c>
       <c r="B520" t="inlineStr">
         <is>
@@ -7198,12 +7198,12 @@
         </is>
       </c>
       <c r="C520" t="n">
-        <v>2618.194109729147</v>
+        <v>2613.909344160897</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="2" t="n">
-        <v>45811.70138888889</v>
+        <v>45811.7125</v>
       </c>
       <c r="B521" t="inlineStr">
         <is>
@@ -7211,12 +7211,12 @@
         </is>
       </c>
       <c r="C521" t="n">
-        <v>2616.203429208542</v>
+        <v>2612.480282297534</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="2" t="n">
-        <v>45811.70486111111</v>
+        <v>45811.71527777778</v>
       </c>
       <c r="B522" t="inlineStr">
         <is>
@@ -7224,12 +7224,12 @@
         </is>
       </c>
       <c r="C522" t="n">
-        <v>2615.232523394602</v>
+        <v>2613.062897430711</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="2" t="n">
-        <v>45811.70902777778</v>
+        <v>45811.71944444445</v>
       </c>
       <c r="B523" t="inlineStr">
         <is>
@@ -7237,12 +7237,12 @@
         </is>
       </c>
       <c r="C523" t="n">
-        <v>2613.909344160897</v>
+        <v>2614.420351201315</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="2" t="n">
-        <v>45811.7125</v>
+        <v>45811.72291666667</v>
       </c>
       <c r="B524" t="inlineStr">
         <is>
@@ -7250,12 +7250,12 @@
         </is>
       </c>
       <c r="C524" t="n">
-        <v>2612.480282297534</v>
+        <v>2617.113672945133</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="2" t="n">
-        <v>45811.71527777778</v>
+        <v>45811.72638888889</v>
       </c>
       <c r="B525" t="inlineStr">
         <is>
@@ -7263,12 +7263,12 @@
         </is>
       </c>
       <c r="C525" t="n">
-        <v>2613.062897430711</v>
+        <v>2622.496708433117</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="2" t="n">
-        <v>45811.71944444445</v>
+        <v>45811.72916666666</v>
       </c>
       <c r="B526" t="inlineStr">
         <is>
@@ -7276,12 +7276,12 @@
         </is>
       </c>
       <c r="C526" t="n">
-        <v>2614.420351201315</v>
+        <v>2623.491325104217</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="2" t="n">
-        <v>45811.72291666667</v>
+        <v>45811.73263888889</v>
       </c>
       <c r="B527" t="inlineStr">
         <is>
@@ -7289,12 +7289,12 @@
         </is>
       </c>
       <c r="C527" t="n">
-        <v>2617.113672945133</v>
+        <v>2622.916092944161</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="2" t="n">
-        <v>45811.72638888889</v>
+        <v>45811.73680555556</v>
       </c>
       <c r="B528" t="inlineStr">
         <is>
@@ -7302,12 +7302,12 @@
         </is>
       </c>
       <c r="C528" t="n">
-        <v>2622.496708433117</v>
+        <v>2623.052401573362</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="2" t="n">
-        <v>45811.72916666666</v>
+        <v>45811.74027777778</v>
       </c>
       <c r="B529" t="inlineStr">
         <is>
@@ -7315,12 +7315,12 @@
         </is>
       </c>
       <c r="C529" t="n">
-        <v>2623.491325104217</v>
+        <v>2623.080828784786</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="2" t="n">
-        <v>45811.73263888889</v>
+        <v>45811.74305555555</v>
       </c>
       <c r="B530" t="inlineStr">
         <is>
@@ -7328,12 +7328,12 @@
         </is>
       </c>
       <c r="C530" t="n">
-        <v>2622.916092944161</v>
+        <v>2620.928658565684</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="2" t="n">
-        <v>45811.73680555556</v>
+        <v>45811.74652777778</v>
       </c>
       <c r="B531" t="inlineStr">
         <is>
@@ -7341,12 +7341,12 @@
         </is>
       </c>
       <c r="C531" t="n">
-        <v>2623.052401573362</v>
+        <v>2620.431263707225</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="2" t="n">
-        <v>45811.74027777778</v>
+        <v>45811.75</v>
       </c>
       <c r="B532" t="inlineStr">
         <is>
@@ -7354,12 +7354,12 @@
         </is>
       </c>
       <c r="C532" t="n">
-        <v>2623.080828784786</v>
+        <v>2620.721920451941</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="2" t="n">
-        <v>45811.74305555555</v>
+        <v>45811.75347222222</v>
       </c>
       <c r="B533" t="inlineStr">
         <is>
@@ -7367,12 +7367,12 @@
         </is>
       </c>
       <c r="C533" t="n">
-        <v>2620.928658565684</v>
+        <v>2619.52957891511</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="2" t="n">
-        <v>45811.74652777778</v>
+        <v>45811.75763888889</v>
       </c>
       <c r="B534" t="inlineStr">
         <is>
@@ -7380,12 +7380,12 @@
         </is>
       </c>
       <c r="C534" t="n">
-        <v>2620.431263707225</v>
+        <v>2617.335645119655</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="2" t="n">
-        <v>45811.75</v>
+        <v>45811.76041666666</v>
       </c>
       <c r="B535" t="inlineStr">
         <is>
@@ -7393,12 +7393,12 @@
         </is>
       </c>
       <c r="C535" t="n">
-        <v>2620.721920451941</v>
+        <v>2615.941165388594</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="2" t="n">
-        <v>45811.75347222222</v>
+        <v>45811.76388888889</v>
       </c>
       <c r="B536" t="inlineStr">
         <is>
@@ -7406,12 +7406,12 @@
         </is>
       </c>
       <c r="C536" t="n">
-        <v>2619.52957891511</v>
+        <v>2613.903928641473</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="2" t="n">
-        <v>45811.75763888889</v>
+        <v>45811.76805555556</v>
       </c>
       <c r="B537" t="inlineStr">
         <is>
@@ -7419,12 +7419,12 @@
         </is>
       </c>
       <c r="C537" t="n">
-        <v>2617.335645119655</v>
+        <v>2614.153821076835</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="2" t="n">
-        <v>45811.76041666666</v>
+        <v>45811.77222222222</v>
       </c>
       <c r="B538" t="inlineStr">
         <is>
@@ -7432,12 +7432,12 @@
         </is>
       </c>
       <c r="C538" t="n">
-        <v>2615.941165388594</v>
+        <v>2614.113529408728</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="2" t="n">
-        <v>45811.76388888889</v>
+        <v>45811.77430555555</v>
       </c>
       <c r="B539" t="inlineStr">
         <is>
@@ -7445,12 +7445,12 @@
         </is>
       </c>
       <c r="C539" t="n">
-        <v>2613.903928641473</v>
+        <v>2614.781385786145</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="2" t="n">
-        <v>45811.76805555556</v>
+        <v>45811.77916666667</v>
       </c>
       <c r="B540" t="inlineStr">
         <is>
@@ -7458,12 +7458,12 @@
         </is>
       </c>
       <c r="C540" t="n">
-        <v>2614.153821076835</v>
+        <v>2615.068019326366</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="2" t="n">
-        <v>45811.77222222222</v>
+        <v>45811.78194444445</v>
       </c>
       <c r="B541" t="inlineStr">
         <is>
@@ -7471,12 +7471,12 @@
         </is>
       </c>
       <c r="C541" t="n">
-        <v>2614.113529408728</v>
+        <v>2615.467870001259</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="2" t="n">
-        <v>45811.77430555555</v>
+        <v>45811.78541666667</v>
       </c>
       <c r="B542" t="inlineStr">
         <is>
@@ -7484,12 +7484,12 @@
         </is>
       </c>
       <c r="C542" t="n">
-        <v>2614.781385786145</v>
+        <v>2616.390606175768</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="2" t="n">
-        <v>45811.77916666667</v>
+        <v>45811.78888888889</v>
       </c>
       <c r="B543" t="inlineStr">
         <is>
@@ -7497,12 +7497,12 @@
         </is>
       </c>
       <c r="C543" t="n">
-        <v>2615.068019326366</v>
+        <v>2616.54326799329</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="2" t="n">
-        <v>45811.78194444445</v>
+        <v>45811.79305555556</v>
       </c>
       <c r="B544" t="inlineStr">
         <is>
@@ -7510,12 +7510,12 @@
         </is>
       </c>
       <c r="C544" t="n">
-        <v>2615.467870001259</v>
+        <v>2618.114611706608</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="2" t="n">
-        <v>45811.78541666667</v>
+        <v>45811.79583333333</v>
       </c>
       <c r="B545" t="inlineStr">
         <is>
@@ -7523,12 +7523,12 @@
         </is>
       </c>
       <c r="C545" t="n">
-        <v>2616.390606175768</v>
+        <v>2620.098805748143</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="2" t="n">
-        <v>45811.78888888889</v>
+        <v>45811.79861111111</v>
       </c>
       <c r="B546" t="inlineStr">
         <is>
@@ -7536,12 +7536,12 @@
         </is>
       </c>
       <c r="C546" t="n">
-        <v>2616.54326799329</v>
+        <v>2620.806757221331</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="2" t="n">
-        <v>45811.79305555556</v>
+        <v>45811.80208333334</v>
       </c>
       <c r="B547" t="inlineStr">
         <is>
@@ -7549,12 +7549,12 @@
         </is>
       </c>
       <c r="C547" t="n">
-        <v>2618.114611706608</v>
+        <v>2621.13386334888</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="2" t="n">
-        <v>45811.79583333333</v>
+        <v>45811.80625</v>
       </c>
       <c r="B548" t="inlineStr">
         <is>
@@ -7562,12 +7562,12 @@
         </is>
       </c>
       <c r="C548" t="n">
-        <v>2620.098805748143</v>
+        <v>2621.863411493074</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="2" t="n">
-        <v>45811.79861111111</v>
+        <v>45811.80972222222</v>
       </c>
       <c r="B549" t="inlineStr">
         <is>
@@ -7575,12 +7575,12 @@
         </is>
       </c>
       <c r="C549" t="n">
-        <v>2620.806757221331</v>
+        <v>2624.181297925238</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="2" t="n">
-        <v>45811.80208333334</v>
+        <v>45811.8125</v>
       </c>
       <c r="B550" t="inlineStr">
         <is>
@@ -7588,12 +7588,12 @@
         </is>
       </c>
       <c r="C550" t="n">
-        <v>2621.13386334888</v>
+        <v>2625.658346814396</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="2" t="n">
-        <v>45811.80625</v>
+        <v>45811.81666666667</v>
       </c>
       <c r="B551" t="inlineStr">
         <is>
@@ -7601,12 +7601,12 @@
         </is>
       </c>
       <c r="C551" t="n">
-        <v>2621.863411493074</v>
+        <v>2625.786341610901</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="2" t="n">
-        <v>45811.80972222222</v>
+        <v>45811.82083333333</v>
       </c>
       <c r="B552" t="inlineStr">
         <is>
@@ -7614,12 +7614,12 @@
         </is>
       </c>
       <c r="C552" t="n">
-        <v>2624.181297925238</v>
+        <v>2625.521576378037</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="2" t="n">
-        <v>45811.8125</v>
+        <v>45811.82361111111</v>
       </c>
       <c r="B553" t="inlineStr">
         <is>
@@ -7627,12 +7627,12 @@
         </is>
       </c>
       <c r="C553" t="n">
-        <v>2625.658346814396</v>
+        <v>2625.036409059637</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="2" t="n">
-        <v>45811.81666666667</v>
+        <v>45811.82638888889</v>
       </c>
       <c r="B554" t="inlineStr">
         <is>
@@ -7640,12 +7640,12 @@
         </is>
       </c>
       <c r="C554" t="n">
-        <v>2625.786341610901</v>
+        <v>2624.541786126455</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="2" t="n">
-        <v>45811.82083333333</v>
+        <v>45811.83055555556</v>
       </c>
       <c r="B555" t="inlineStr">
         <is>
@@ -7653,12 +7653,12 @@
         </is>
       </c>
       <c r="C555" t="n">
-        <v>2625.521576378037</v>
+        <v>2621.375384096105</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="2" t="n">
-        <v>45811.82361111111</v>
+        <v>45811.83333333334</v>
       </c>
       <c r="B556" t="inlineStr">
         <is>
@@ -7666,12 +7666,12 @@
         </is>
       </c>
       <c r="C556" t="n">
-        <v>2625.036409059637</v>
+        <v>2622.365926823526</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="2" t="n">
-        <v>45811.82638888889</v>
+        <v>45811.83680555555</v>
       </c>
       <c r="B557" t="inlineStr">
         <is>
@@ -7679,12 +7679,12 @@
         </is>
       </c>
       <c r="C557" t="n">
-        <v>2624.541786126455</v>
+        <v>2622.380808065811</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="2" t="n">
-        <v>45811.83055555556</v>
+        <v>45811.84097222222</v>
       </c>
       <c r="B558" t="inlineStr">
         <is>
@@ -7692,12 +7692,12 @@
         </is>
       </c>
       <c r="C558" t="n">
-        <v>2621.375384096105</v>
+        <v>2622.057797997478</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="2" t="n">
-        <v>45811.83333333334</v>
+        <v>45811.84375</v>
       </c>
       <c r="B559" t="inlineStr">
         <is>
@@ -7705,12 +7705,12 @@
         </is>
       </c>
       <c r="C559" t="n">
-        <v>2622.365926823526</v>
+        <v>2622.020053403028</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="2" t="n">
-        <v>45811.83680555555</v>
+        <v>45811.84722222222</v>
       </c>
       <c r="B560" t="inlineStr">
         <is>
@@ -7718,12 +7718,12 @@
         </is>
       </c>
       <c r="C560" t="n">
-        <v>2622.380808065811</v>
+        <v>2620.673141955877</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="2" t="n">
-        <v>45811.84097222222</v>
+        <v>45811.85138888889</v>
       </c>
       <c r="B561" t="inlineStr">
         <is>
@@ -7731,12 +7731,12 @@
         </is>
       </c>
       <c r="C561" t="n">
-        <v>2622.057797997478</v>
+        <v>2616.564748760303</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="2" t="n">
-        <v>45811.84375</v>
+        <v>45811.85486111111</v>
       </c>
       <c r="B562" t="inlineStr">
         <is>
@@ -7744,12 +7744,12 @@
         </is>
       </c>
       <c r="C562" t="n">
-        <v>2622.020053403028</v>
+        <v>2615.263050697332</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="2" t="n">
-        <v>45811.84722222222</v>
+        <v>45811.85833333333</v>
       </c>
       <c r="B563" t="inlineStr">
         <is>
@@ -7757,12 +7757,12 @@
         </is>
       </c>
       <c r="C563" t="n">
-        <v>2620.673141955877</v>
+        <v>2610.796885573736</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="2" t="n">
-        <v>45811.85138888889</v>
+        <v>45811.86180555556</v>
       </c>
       <c r="B564" t="inlineStr">
         <is>
@@ -7770,12 +7770,12 @@
         </is>
       </c>
       <c r="C564" t="n">
-        <v>2616.564748760303</v>
+        <v>2611.531482776012</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="2" t="n">
-        <v>45811.85486111111</v>
+        <v>45811.86458333334</v>
       </c>
       <c r="B565" t="inlineStr">
         <is>
@@ -7783,12 +7783,12 @@
         </is>
       </c>
       <c r="C565" t="n">
-        <v>2615.263050697332</v>
+        <v>2613.213868936615</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="2" t="n">
-        <v>45811.85833333333</v>
+        <v>45811.86805555555</v>
       </c>
       <c r="B566" t="inlineStr">
         <is>
@@ -7796,12 +7796,12 @@
         </is>
       </c>
       <c r="C566" t="n">
-        <v>2610.796885573736</v>
+        <v>2613.445820261238</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="2" t="n">
-        <v>45811.86180555556</v>
+        <v>45811.87222222222</v>
       </c>
       <c r="B567" t="inlineStr">
         <is>
@@ -7809,12 +7809,12 @@
         </is>
       </c>
       <c r="C567" t="n">
-        <v>2611.531482776012</v>
+        <v>2614.335244985064</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="2" t="n">
-        <v>45811.86458333334</v>
+        <v>45811.87569444445</v>
       </c>
       <c r="B568" t="inlineStr">
         <is>
@@ -7822,12 +7822,12 @@
         </is>
       </c>
       <c r="C568" t="n">
-        <v>2613.213868936615</v>
+        <v>2614.739794980211</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="2" t="n">
-        <v>45811.86805555555</v>
+        <v>45811.87847222222</v>
       </c>
       <c r="B569" t="inlineStr">
         <is>
@@ -7835,12 +7835,12 @@
         </is>
       </c>
       <c r="C569" t="n">
-        <v>2613.445820261238</v>
+        <v>2614.872905722979</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="2" t="n">
-        <v>45811.87222222222</v>
+        <v>45811.88263888889</v>
       </c>
       <c r="B570" t="inlineStr">
         <is>
@@ -7848,12 +7848,12 @@
         </is>
       </c>
       <c r="C570" t="n">
-        <v>2614.335244985064</v>
+        <v>2614.612062198328</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="2" t="n">
-        <v>45811.87569444445</v>
+        <v>45811.88611111111</v>
       </c>
       <c r="B571" t="inlineStr">
         <is>
@@ -7861,12 +7861,12 @@
         </is>
       </c>
       <c r="C571" t="n">
-        <v>2614.739794980211</v>
+        <v>2612.945131395675</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="2" t="n">
-        <v>45811.87847222222</v>
+        <v>45811.88958333333</v>
       </c>
       <c r="B572" t="inlineStr">
         <is>
@@ -7874,12 +7874,12 @@
         </is>
       </c>
       <c r="C572" t="n">
-        <v>2614.872905722979</v>
+        <v>2611.19971528169</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="2" t="n">
-        <v>45811.88263888889</v>
+        <v>45811.89236111111</v>
       </c>
       <c r="B573" t="inlineStr">
         <is>
@@ -7887,12 +7887,12 @@
         </is>
       </c>
       <c r="C573" t="n">
-        <v>2614.612062198328</v>
+        <v>2607.714986048191</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="2" t="n">
-        <v>45811.88472222222</v>
+        <v>45811.89652777778</v>
       </c>
       <c r="B574" t="inlineStr">
         <is>
@@ -7900,7 +7900,7 @@
         </is>
       </c>
       <c r="C574" t="n">
-        <v>2613.8759167633</v>
+        <v>2607.590135838028</v>
       </c>
     </row>
   </sheetData>
